--- a/Links/Attribute-Property/Attribute-Property.xlsx
+++ b/Links/Attribute-Property/Attribute-Property.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MIXITE\Projects\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Links\Attribute-Property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Links\Attribute-Property\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="890">
   <si>
     <t>Property Label</t>
   </si>
@@ -2695,6 +2695,12 @@
   </si>
   <si>
     <t>class/attribute/longdegree</t>
+  </si>
+  <si>
+    <t>class/attribute/range</t>
+  </si>
+  <si>
+    <t>class/attribute/township</t>
   </si>
 </sst>
 </file>
@@ -3625,42 +3631,42 @@
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>class/attribute/depth-ft</v>
+            <v>class/attribute/depthbottominterval</v>
           </cell>
           <cell r="C106" t="str">
-            <v>Depth ft</v>
+            <v>Depth Bottom Interval</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>class/attribute/depthbottominterval</v>
+            <v>class/attribute/depthbottominterval-ft</v>
           </cell>
           <cell r="C107" t="str">
-            <v>Depth Bottom Interval</v>
+            <v>Depth Bottom Interval ft</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>class/attribute/depthbottominterval-ft</v>
+            <v>class/attribute/depthbottomopenzone</v>
           </cell>
           <cell r="C108" t="str">
-            <v>Depth Bottom Interval ft</v>
+            <v>Depth Bottom Open Zone</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>class/attribute/depthbottomopenzone</v>
+            <v>class/attribute/depthdeterminationmethod</v>
           </cell>
           <cell r="C109" t="str">
-            <v>Depth Bottom Open Zone</v>
+            <v>Depth Determination Method</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>class/attribute/depthdeterminationmethod</v>
+            <v>class/attribute/depth-ft</v>
           </cell>
           <cell r="C110" t="str">
-            <v>Depth Determination Method</v>
+            <v>Depth ft</v>
           </cell>
         </row>
         <row r="111">
@@ -3961,82 +3967,82 @@
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>class/attribute/elevation-ft-msl</v>
+            <v>class/attribute/elevationbottomopenzone-msl</v>
           </cell>
           <cell r="C148" t="str">
-            <v>Elevation ft msl</v>
+            <v>Elevation Bottom Open Zone msl</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>class/attribute/elevation-m</v>
+            <v>class/attribute/elevationdatum</v>
           </cell>
           <cell r="C149" t="str">
-            <v>Elevation m</v>
+            <v>Elevation Datum</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>class/attribute/elevationbottomopenzone-msl</v>
+            <v>class/attribute/elevationdatum-m</v>
           </cell>
           <cell r="C150" t="str">
-            <v>Elevation Bottom Open Zone msl</v>
+            <v>Elevation Datum meters</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>class/attribute/elevationdatum</v>
+            <v>class/attribute/elevationdf</v>
           </cell>
           <cell r="C151" t="str">
-            <v>Elevation Datum</v>
+            <v>Elevation DF</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>class/attribute/elevationdatum-m</v>
+            <v>class/attribute/elevation-ft-msl</v>
           </cell>
           <cell r="C152" t="str">
-            <v>Elevation Datum meters</v>
+            <v>Elevation ft msl</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>class/attribute/elevationdf</v>
+            <v>class/attribute/elevationgl</v>
           </cell>
           <cell r="C153" t="str">
-            <v>Elevation DF</v>
+            <v>Elevation GL</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>class/attribute/elevationgl</v>
+            <v>class/attribute/elevationgl-ft</v>
           </cell>
           <cell r="C154" t="str">
-            <v>Elevation GL</v>
+            <v>Elevation  Ground Level feet</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>class/attribute/elevationgl-ft</v>
+            <v>class/attribute/elevationgl-m</v>
           </cell>
           <cell r="C155" t="str">
-            <v>Elevation  Ground Level feet</v>
+            <v>Elevation Ground Level meters</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>class/attribute/elevationgl-m</v>
+            <v>class/attribute/elevationkb</v>
           </cell>
           <cell r="C156" t="str">
-            <v>Elevation Ground Level meters</v>
+            <v>Elevation KB</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>class/attribute/elevationkb</v>
+            <v>class/attribute/elevation-m</v>
           </cell>
           <cell r="C157" t="str">
-            <v>Elevation KB</v>
+            <v>Elevation m</v>
           </cell>
         </row>
         <row r="158">
@@ -4137,34 +4143,34 @@
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>class/attribute/eqlog-totaldepth</v>
+            <v>class/attribute/eqlogtemperaturebottom</v>
           </cell>
           <cell r="C170" t="str">
-            <v>Eq Log Total Depth</v>
+            <v>Eq Log Temperature Bottom</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>class/attribute/eqlogtemperaturebottom</v>
+            <v>class/attribute/eqlogtemperaturemax</v>
           </cell>
           <cell r="C171" t="str">
-            <v>Eq Log Temperature Bottom</v>
+            <v>Eq Log Temperature Max</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>class/attribute/eqlogtemperaturemax</v>
+            <v>class/attribute/eqlogtemperaturetop</v>
           </cell>
           <cell r="C172" t="str">
-            <v>Eq Log Temperature Max</v>
+            <v>Eq Log Temperature Top</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>class/attribute/eqlogtemperaturetop</v>
+            <v>class/attribute/eqlog-totaldepth</v>
           </cell>
           <cell r="C173" t="str">
-            <v>Eq Log Temperature Top</v>
+            <v>Eq Log Total Depth</v>
           </cell>
         </row>
         <row r="174">
@@ -4481,18 +4487,18 @@
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>class/attribute/fluidtemperature-c</v>
+            <v>class/attribute/fluidtemperaturec</v>
           </cell>
           <cell r="C213" t="str">
-            <v>Fluid Temperature Centigrade</v>
+            <v>Fluid Temperature C</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>class/attribute/fluidtemperaturec</v>
+            <v>class/attribute/fluidtemperature-c</v>
           </cell>
           <cell r="C214" t="str">
-            <v>Fluid Temperature C</v>
+            <v>Fluid Temperature Centigrade</v>
           </cell>
         </row>
         <row r="215">
@@ -4689,18 +4695,18 @@
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>class/attribute/grossproduction-mwhr</v>
+            <v>class/attribute/grossproductioncapacity</v>
           </cell>
           <cell r="C239" t="str">
-            <v>Gross Production MWhr</v>
+            <v>Gross Production Capacity</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>class/attribute/grossproductioncapacity</v>
+            <v>class/attribute/grossproduction-mwhr</v>
           </cell>
           <cell r="C240" t="str">
-            <v>Gross Production Capacity</v>
+            <v>Gross Production MWhr</v>
           </cell>
         </row>
         <row r="241">
@@ -5681,18 +5687,18 @@
         </row>
         <row r="363">
           <cell r="A363" t="str">
-            <v>class/attribute/metadata-uri</v>
+            <v>class/attribute/metadatauri</v>
           </cell>
           <cell r="C363" t="str">
-            <v>metadata uri</v>
+            <v>MetadataURI</v>
           </cell>
         </row>
         <row r="364">
           <cell r="A364" t="str">
-            <v>class/attribute/metadatauri</v>
+            <v>class/attribute/metadata-uri</v>
           </cell>
           <cell r="C364" t="str">
-            <v>MetadataURI</v>
+            <v>metadata uri</v>
           </cell>
         </row>
         <row r="365">
@@ -6265,98 +6271,98 @@
         </row>
         <row r="436">
           <cell r="A436" t="str">
-            <v>class/attribute/permeability-md</v>
+            <v>class/attribute/permeabilityair-md</v>
           </cell>
           <cell r="C436" t="str">
-            <v>Permeability md</v>
+            <v>Permeability, air mD</v>
           </cell>
         </row>
         <row r="437">
           <cell r="A437" t="str">
-            <v>class/attribute/permeabilityair-md</v>
+            <v>class/attribute/permeabilityaverage-m2</v>
           </cell>
           <cell r="C437" t="str">
-            <v>Permeability, air mD</v>
+            <v>Permeability Average m2</v>
           </cell>
         </row>
         <row r="438">
           <cell r="A438" t="str">
-            <v>class/attribute/permeabilityaverage-m2</v>
+            <v>class/attribute/permeabilityaveragemethod</v>
           </cell>
           <cell r="C438" t="str">
-            <v>Permeability Average m2</v>
+            <v>Permeability Average Method</v>
           </cell>
         </row>
         <row r="439">
           <cell r="A439" t="str">
-            <v>class/attribute/permeabilityaveragemethod</v>
+            <v>class/attribute/permeabilityaverageuncertainty</v>
           </cell>
           <cell r="C439" t="str">
-            <v>Permeability Average Method</v>
+            <v>Permeability Average Uncertainty</v>
           </cell>
         </row>
         <row r="440">
           <cell r="A440" t="str">
-            <v>class/attribute/permeabilityaverageuncertainty</v>
+            <v>class/attribute/permeabilitycommonlyobserved-md</v>
           </cell>
           <cell r="C440" t="str">
-            <v>Permeability Average Uncertainty</v>
+            <v>Permeability, Commonly observed mD</v>
           </cell>
         </row>
         <row r="441">
           <cell r="A441" t="str">
-            <v>class/attribute/permeabilitycommonlyobserved-md</v>
+            <v>class/attribute/permeabilitygeometricmean-md</v>
           </cell>
           <cell r="C441" t="str">
-            <v>Permeability, Commonly observed mD</v>
+            <v>Permeability, Geometric mean  mD</v>
           </cell>
         </row>
         <row r="442">
           <cell r="A442" t="str">
-            <v>class/attribute/permeabilitygeometricmean-md</v>
+            <v>class/attribute/permeabilityintrinsic-md</v>
           </cell>
           <cell r="C442" t="str">
-            <v>Permeability, Geometric mean  mD</v>
+            <v>Permeability, Intrinsic mD</v>
           </cell>
         </row>
         <row r="443">
           <cell r="A443" t="str">
-            <v>class/attribute/permeabilityintrinsic-md</v>
+            <v>class/attribute/permeabilitylocal-md</v>
           </cell>
           <cell r="C443" t="str">
-            <v>Permeability, Intrinsic mD</v>
+            <v>Permeability, Local mD</v>
           </cell>
         </row>
         <row r="444">
           <cell r="A444" t="str">
-            <v>class/attribute/permeabilitylocal-md</v>
+            <v>class/attribute/permeabilitymax-m2</v>
           </cell>
           <cell r="C444" t="str">
-            <v>Permeability, Local mD</v>
+            <v>Permeability Max m2</v>
           </cell>
         </row>
         <row r="445">
           <cell r="A445" t="str">
-            <v>class/attribute/permeabilitymax-m2</v>
+            <v>class/attribute/permeability-md</v>
           </cell>
           <cell r="C445" t="str">
-            <v>Permeability Max m2</v>
+            <v>Permeability md</v>
           </cell>
         </row>
         <row r="446">
           <cell r="A446" t="str">
-            <v>class/attribute/permeabilitymean-md</v>
+            <v>class/attribute/permeabilitymeanintrinsic-md</v>
           </cell>
           <cell r="C446" t="str">
-            <v>Permeability, mean mD</v>
+            <v>Permeability, Mean intrinsic mD</v>
           </cell>
         </row>
         <row r="447">
           <cell r="A447" t="str">
-            <v>class/attribute/permeabilitymeanintrinsic-md</v>
+            <v>class/attribute/permeabilitymean-md</v>
           </cell>
           <cell r="C447" t="str">
-            <v>Permeability, Mean intrinsic mD</v>
+            <v>Permeability, mean mD</v>
           </cell>
         </row>
         <row r="448">
@@ -6473,18 +6479,18 @@
         </row>
         <row r="462">
           <cell r="A462" t="str">
-            <v>class/attribute/plss-meridians</v>
+            <v>class/attribute/plsslocation</v>
           </cell>
           <cell r="C462" t="str">
-            <v>PLSS Meridians</v>
+            <v>PLSS Location</v>
           </cell>
         </row>
         <row r="463">
           <cell r="A463" t="str">
-            <v>class/attribute/plsslocation</v>
+            <v>class/attribute/plss-meridians</v>
           </cell>
           <cell r="C463" t="str">
-            <v>PLSS Location</v>
+            <v>PLSS Meridians</v>
           </cell>
         </row>
         <row r="464">
@@ -6521,18 +6527,18 @@
         </row>
         <row r="468">
           <cell r="A468" t="str">
-            <v>class/attribute/porosityaverage-pct</v>
+            <v>class/attribute/porosityaveragemethod</v>
           </cell>
           <cell r="C468" t="str">
-            <v>Porosity Average pct</v>
+            <v>Porosity Average Method</v>
           </cell>
         </row>
         <row r="469">
           <cell r="A469" t="str">
-            <v>class/attribute/porosityaveragemethod</v>
+            <v>class/attribute/porosityaverage-pct</v>
           </cell>
           <cell r="C469" t="str">
-            <v>Porosity Average Method</v>
+            <v>Porosity Average pct</v>
           </cell>
         </row>
         <row r="470">
@@ -6641,26 +6647,26 @@
         </row>
         <row r="483">
           <cell r="A483" t="str">
-            <v>class/attribute/pressure-psi</v>
+            <v>class/attribute/pressurefinalshutin</v>
           </cell>
           <cell r="C483" t="str">
-            <v>Pressure psi</v>
+            <v>Pressure Final Shut In</v>
           </cell>
         </row>
         <row r="484">
           <cell r="A484" t="str">
-            <v>class/attribute/pressurefinalshutin</v>
+            <v>class/attribute/pressureinitialshutin</v>
           </cell>
           <cell r="C484" t="str">
-            <v>Pressure Final Shut In</v>
+            <v>Pressure Initial Shut In</v>
           </cell>
         </row>
         <row r="485">
           <cell r="A485" t="str">
-            <v>class/attribute/pressureinitialshutin</v>
+            <v>class/attribute/pressure-psi</v>
           </cell>
           <cell r="C485" t="str">
-            <v>Pressure Initial Shut In</v>
+            <v>Pressure psi</v>
           </cell>
         </row>
         <row r="486">
@@ -6737,706 +6743,706 @@
         </row>
         <row r="495">
           <cell r="A495" t="str">
-            <v>class/attribute/rank</v>
+            <v>class/attribute/range</v>
           </cell>
           <cell r="C495" t="str">
-            <v>Rank</v>
+            <v>Range</v>
           </cell>
         </row>
         <row r="496">
           <cell r="A496" t="str">
-            <v>class/attribute/rechargeprocedure1</v>
+            <v>class/attribute/rank</v>
           </cell>
           <cell r="C496" t="str">
-            <v>Recharge Procedure 1</v>
+            <v>Rank</v>
           </cell>
         </row>
         <row r="497">
           <cell r="A497" t="str">
-            <v>class/attribute/rechargeprocedure2</v>
+            <v>class/attribute/rechargeprocedure1</v>
           </cell>
           <cell r="C497" t="str">
-            <v>Recharge Procedure 2</v>
+            <v>Recharge Procedure 1</v>
           </cell>
         </row>
         <row r="498">
           <cell r="A498" t="str">
-            <v>class/attribute/recordname</v>
+            <v>class/attribute/rechargeprocedure2</v>
           </cell>
           <cell r="C498" t="str">
-            <v>Record Name</v>
+            <v>Recharge Procedure 2</v>
           </cell>
         </row>
         <row r="499">
           <cell r="A499" t="str">
-            <v>class/attribute/recurrenceinterval</v>
+            <v>class/attribute/recordname</v>
           </cell>
           <cell r="C499" t="str">
-            <v>Recurrence Interval</v>
+            <v>Record Name</v>
           </cell>
         </row>
         <row r="500">
           <cell r="A500" t="str">
-            <v>class/attribute/registrant</v>
+            <v>class/attribute/recurrenceinterval</v>
           </cell>
           <cell r="C500" t="str">
-            <v>Registrant</v>
+            <v>Recurrence Interval</v>
           </cell>
         </row>
         <row r="501">
           <cell r="A501" t="str">
-            <v>class/attribute/registranturi</v>
+            <v>class/attribute/registrant</v>
           </cell>
           <cell r="C501" t="str">
-            <v>Registrant URI</v>
+            <v>Registrant</v>
           </cell>
         </row>
         <row r="502">
           <cell r="A502" t="str">
-            <v>class/attribute/relatedfault</v>
+            <v>class/attribute/registranturi</v>
           </cell>
           <cell r="C502" t="str">
-            <v>Related Fault</v>
+            <v>Registrant URI</v>
           </cell>
         </row>
         <row r="503">
           <cell r="A503" t="str">
-            <v>class/attribute/relatedfaulturi</v>
+            <v>class/attribute/relatedfault</v>
           </cell>
           <cell r="C503" t="str">
-            <v>Related Fault URI</v>
+            <v>Related Fault</v>
           </cell>
         </row>
         <row r="504">
           <cell r="A504" t="str">
-            <v>class/attribute/relatedfeature</v>
+            <v>class/attribute/relatedfaulturi</v>
           </cell>
           <cell r="C504" t="str">
-            <v>Related Feature</v>
+            <v>Related Fault URI</v>
           </cell>
         </row>
         <row r="505">
           <cell r="A505" t="str">
-            <v>class/attribute/relatedheatflowintervalsuri</v>
+            <v>class/attribute/relatedfeature</v>
           </cell>
           <cell r="C505" t="str">
-            <v>Related Heat Flow Intervals URI</v>
+            <v>Related Feature</v>
           </cell>
         </row>
         <row r="506">
           <cell r="A506" t="str">
-            <v>class/attribute/relatedresource</v>
+            <v>class/attribute/relatedheatflowintervalsuri</v>
           </cell>
           <cell r="C506" t="str">
-            <v>Related Resource</v>
+            <v>Related Heat Flow Intervals URI</v>
           </cell>
         </row>
         <row r="507">
           <cell r="A507" t="str">
-            <v>class/attribute/relatedresources</v>
+            <v>class/attribute/relatedresource</v>
           </cell>
           <cell r="C507" t="str">
-            <v>Related Resources</v>
+            <v>Related Resource</v>
           </cell>
         </row>
         <row r="508">
           <cell r="A508" t="str">
-            <v>class/attribute/relatedsampleuri</v>
+            <v>class/attribute/relatedresources</v>
           </cell>
           <cell r="C508" t="str">
-            <v>Related Sample URI</v>
+            <v>Related Resources</v>
           </cell>
         </row>
         <row r="509">
           <cell r="A509" t="str">
-            <v>class/attribute/relatedwaterchemistry</v>
+            <v>class/attribute/relatedsampleuri</v>
           </cell>
           <cell r="C509" t="str">
-            <v>Related Water Chemistry</v>
+            <v>Related Sample URI</v>
           </cell>
         </row>
         <row r="510">
           <cell r="A510" t="str">
-            <v>class/attribute/releasedate</v>
+            <v>class/attribute/relatedwaterchemistry</v>
           </cell>
           <cell r="C510" t="str">
-            <v>Release Date</v>
+            <v>Related Water Chemistry</v>
           </cell>
         </row>
         <row r="511">
           <cell r="A511" t="str">
-            <v>class/attribute/remarks</v>
+            <v>class/attribute/releasedate</v>
           </cell>
           <cell r="C511" t="str">
-            <v>Remarks</v>
+            <v>Release Date</v>
           </cell>
         </row>
         <row r="512">
           <cell r="A512" t="str">
-            <v>class/attribute/reportingperiod</v>
+            <v>class/attribute/remarks</v>
           </cell>
           <cell r="C512" t="str">
-            <v>Reporting Period</v>
+            <v>Remarks</v>
           </cell>
         </row>
         <row r="513">
           <cell r="A513" t="str">
-            <v>class/attribute/reportyear</v>
+            <v>class/attribute/reportingperiod</v>
           </cell>
           <cell r="C513" t="str">
-            <v>Report Year</v>
+            <v>Reporting Period</v>
           </cell>
         </row>
         <row r="514">
           <cell r="A514" t="str">
-            <v>class/attribute/representativeageuri</v>
+            <v>class/attribute/reportyear</v>
           </cell>
           <cell r="C514" t="str">
-            <v>Representative Age URI</v>
+            <v>Report Year</v>
           </cell>
         </row>
         <row r="515">
           <cell r="A515" t="str">
-            <v>class/attribute/representativelithologyuri</v>
+            <v>class/attribute/representativeageuri</v>
           </cell>
           <cell r="C515" t="str">
-            <v>Representative Lithology URI</v>
+            <v>Representative Age URI</v>
           </cell>
         </row>
         <row r="516">
           <cell r="A516" t="str">
-            <v>class/attribute/reservoirfavorability</v>
+            <v>class/attribute/representativelithologyuri</v>
           </cell>
           <cell r="C516" t="str">
-            <v>Reservoir Favorability</v>
+            <v>Representative Lithology URI</v>
           </cell>
         </row>
         <row r="517">
           <cell r="A517" t="str">
-            <v>class/attribute/reservoirfavorabilitymethodology</v>
+            <v>class/attribute/reservoirfavorability</v>
           </cell>
           <cell r="C517" t="str">
-            <v>Reservoir Favorability Methodology</v>
+            <v>Reservoir Favorability</v>
           </cell>
         </row>
         <row r="518">
           <cell r="A518" t="str">
-            <v>class/attribute/reservoirfavorabilityuncertainty</v>
+            <v>class/attribute/reservoirfavorabilitymethodology</v>
           </cell>
           <cell r="C518" t="str">
-            <v>Reservoir Favorability Uncertainty</v>
+            <v>Reservoir Favorability Methodology</v>
           </cell>
         </row>
         <row r="519">
           <cell r="A519" t="str">
-            <v>class/attribute/reservoirname</v>
+            <v>class/attribute/reservoirfavorabilityuncertainty</v>
           </cell>
           <cell r="C519" t="str">
-            <v xml:space="preserve">Reservoir Name </v>
+            <v>Reservoir Favorability Uncertainty</v>
           </cell>
         </row>
         <row r="520">
           <cell r="A520" t="str">
-            <v>class/attribute/reservoiruri</v>
+            <v>class/attribute/reservoirname</v>
           </cell>
           <cell r="C520" t="str">
-            <v>Reservoir URI</v>
+            <v xml:space="preserve">Reservoir Name </v>
           </cell>
         </row>
         <row r="521">
           <cell r="A521" t="str">
-            <v>class/attribute/resistivitymud</v>
+            <v>class/attribute/reservoiruri</v>
           </cell>
           <cell r="C521" t="str">
-            <v>Mud Resistivity</v>
+            <v>Reservoir URI</v>
           </cell>
         </row>
         <row r="522">
           <cell r="A522" t="str">
-            <v>class/attribute/resistivitywater-ohm-m</v>
+            <v>class/attribute/resistivitymud</v>
           </cell>
           <cell r="C522" t="str">
-            <v>Water Resistivity ohm/m</v>
+            <v>Mud Resistivity</v>
           </cell>
         </row>
         <row r="523">
           <cell r="A523" t="str">
-            <v>class/attribute/resourcetype</v>
+            <v>class/attribute/resistivitywater-ohm-m</v>
           </cell>
           <cell r="C523" t="str">
-            <v>Resource Type</v>
+            <v>Water Resistivity ohm/m</v>
           </cell>
         </row>
         <row r="524">
           <cell r="A524" t="str">
-            <v>class/attribute/result</v>
+            <v>class/attribute/resourcetype</v>
           </cell>
           <cell r="C524" t="str">
-            <v>Result</v>
+            <v>Resource Type</v>
           </cell>
         </row>
         <row r="525">
           <cell r="A525" t="str">
-            <v>class/attribute/rge</v>
+            <v>class/attribute/result</v>
           </cell>
           <cell r="C525" t="str">
-            <v>RGE</v>
+            <v>Result</v>
           </cell>
         </row>
         <row r="526">
           <cell r="A526" t="str">
-            <v>class/attribute/rockname</v>
+            <v>class/attribute/rge</v>
           </cell>
           <cell r="C526" t="str">
-            <v>Rock Name</v>
+            <v>RGE</v>
           </cell>
         </row>
         <row r="527">
           <cell r="A527" t="str">
-            <v>class/attribute/rocktype</v>
+            <v>class/attribute/rockname</v>
           </cell>
           <cell r="C527" t="str">
-            <v>Rock Type</v>
+            <v>Rock Name</v>
           </cell>
         </row>
         <row r="528">
           <cell r="A528" t="str">
-            <v>class/attribute/salinity</v>
+            <v>class/attribute/rocktype</v>
           </cell>
           <cell r="C528" t="str">
-            <v>Salinity</v>
+            <v>Rock Type</v>
           </cell>
         </row>
         <row r="529">
           <cell r="A529" t="str">
-            <v>class/attribute/samplecollectiondate</v>
+            <v>class/attribute/salinity</v>
           </cell>
           <cell r="C529" t="str">
-            <v>Sample Collection Date</v>
+            <v>Salinity</v>
           </cell>
         </row>
         <row r="530">
           <cell r="A530" t="str">
-            <v>class/attribute/samplecollectionmethod</v>
+            <v>class/attribute/samplecollectiondate</v>
           </cell>
           <cell r="C530" t="str">
-            <v>Sample Collection Method</v>
+            <v>Sample Collection Date</v>
           </cell>
         </row>
         <row r="531">
           <cell r="A531" t="str">
-            <v>class/attribute/samplecureduration</v>
+            <v>class/attribute/samplecollectionmethod</v>
           </cell>
           <cell r="C531" t="str">
-            <v>Sample Cure Duration</v>
+            <v>Sample Collection Method</v>
           </cell>
         </row>
         <row r="532">
           <cell r="A532" t="str">
-            <v>class/attribute/sampledensity</v>
+            <v>class/attribute/samplecureduration</v>
           </cell>
           <cell r="C532" t="str">
-            <v>Sample Density</v>
+            <v>Sample Cure Duration</v>
           </cell>
         </row>
         <row r="533">
           <cell r="A533" t="str">
-            <v>class/attribute/sampledensity-g-cc</v>
+            <v>class/attribute/sampledensity</v>
           </cell>
           <cell r="C533" t="str">
-            <v>Sample Density g-cc</v>
+            <v>Sample Density</v>
           </cell>
         </row>
         <row r="534">
           <cell r="A534" t="str">
-            <v>class/attribute/sampledensityunits</v>
+            <v>class/attribute/sampledensity-g-cc</v>
           </cell>
           <cell r="C534" t="str">
-            <v>Sample Density Units</v>
+            <v>Sample Density g-cc</v>
           </cell>
         </row>
         <row r="535">
           <cell r="A535" t="str">
-            <v>class/attribute/sampledepth</v>
+            <v>class/attribute/sampledensityunits</v>
           </cell>
           <cell r="C535" t="str">
-            <v>Sample Depth</v>
+            <v>Sample Density Units</v>
           </cell>
         </row>
         <row r="536">
           <cell r="A536" t="str">
-            <v>class/attribute/sampledepth-m</v>
+            <v>class/attribute/sampledepth</v>
           </cell>
           <cell r="C536" t="str">
-            <v>Sample Depth meters</v>
+            <v>Sample Depth</v>
           </cell>
         </row>
         <row r="537">
           <cell r="A537" t="str">
-            <v>class/attribute/sampledfeatureagelabel</v>
+            <v>class/attribute/sampledepth-m</v>
           </cell>
           <cell r="C537" t="str">
-            <v>Sampled Feature Age Label</v>
+            <v>Sample Depth meters</v>
           </cell>
         </row>
         <row r="538">
           <cell r="A538" t="str">
-            <v>class/attribute/sampledfeaturemaxage-ma</v>
+            <v>class/attribute/sampledfeatureagelabel</v>
           </cell>
           <cell r="C538" t="str">
-            <v>Sampled Feature Max Age Ma</v>
+            <v>Sampled Feature Age Label</v>
           </cell>
         </row>
         <row r="539">
           <cell r="A539" t="str">
-            <v>class/attribute/sampledfeatureminage-ma</v>
+            <v>class/attribute/sampledfeaturemaxage-ma</v>
           </cell>
           <cell r="C539" t="str">
-            <v>Sampled Feature Min Age Ma</v>
+            <v>Sampled Feature Max Age Ma</v>
           </cell>
         </row>
         <row r="540">
           <cell r="A540" t="str">
-            <v>class/attribute/sampledgeologicunit</v>
+            <v>class/attribute/sampledfeatureminage-ma</v>
           </cell>
           <cell r="C540" t="str">
-            <v>Sampled Geologic Unit</v>
+            <v>Sampled Feature Min Age Ma</v>
           </cell>
         </row>
         <row r="541">
           <cell r="A541" t="str">
-            <v>class/attribute/sampledgeologicunitage</v>
+            <v>class/attribute/sampledgeologicunit</v>
           </cell>
           <cell r="C541" t="str">
-            <v>Sampled Geologic Unit Age</v>
+            <v>Sampled Geologic Unit</v>
           </cell>
         </row>
         <row r="542">
           <cell r="A542" t="str">
-            <v>class/attribute/sampledimensionsheight</v>
+            <v>class/attribute/sampledgeologicunitage</v>
           </cell>
           <cell r="C542" t="str">
-            <v>Sample Dimensions Height</v>
+            <v>Sampled Geologic Unit Age</v>
           </cell>
         </row>
         <row r="543">
           <cell r="A543" t="str">
-            <v>class/attribute/sampledimensionslength</v>
+            <v>class/attribute/sampledimensionsheight</v>
           </cell>
           <cell r="C543" t="str">
-            <v>Sample Dimensions Length</v>
+            <v>Sample Dimensions Height</v>
           </cell>
         </row>
         <row r="544">
           <cell r="A544" t="str">
-            <v>class/attribute/sampledimensionsunits</v>
+            <v>class/attribute/sampledimensionslength</v>
           </cell>
           <cell r="C544" t="str">
-            <v>Sample Dimensions Units</v>
+            <v>Sample Dimensions Length</v>
           </cell>
         </row>
         <row r="545">
           <cell r="A545" t="str">
-            <v>class/attribute/sampledimensionswidth</v>
+            <v>class/attribute/sampledimensionsunits</v>
           </cell>
           <cell r="C545" t="str">
-            <v>Sample Dimensions Width</v>
+            <v>Sample Dimensions Units</v>
           </cell>
         </row>
         <row r="546">
           <cell r="A546" t="str">
-            <v>class/attribute/samplemass-kg</v>
+            <v>class/attribute/sampledimensionswidth</v>
           </cell>
           <cell r="C546" t="str">
-            <v>Sample Mass kg</v>
+            <v>Sample Dimensions Width</v>
           </cell>
         </row>
         <row r="547">
           <cell r="A547" t="str">
-            <v>class/attribute/samplemeasurementdate</v>
+            <v>class/attribute/samplemass-kg</v>
           </cell>
           <cell r="C547" t="str">
-            <v>Sample Measurement Date</v>
+            <v>Sample Mass kg</v>
           </cell>
         </row>
         <row r="548">
           <cell r="A548" t="str">
-            <v>class/attribute/sampleshape</v>
+            <v>class/attribute/samplemeasurementdate</v>
           </cell>
           <cell r="C548" t="str">
-            <v>Sample Shape</v>
+            <v>Sample Measurement Date</v>
           </cell>
         </row>
         <row r="549">
           <cell r="A549" t="str">
-            <v>class/attribute/sampletemperature</v>
+            <v>class/attribute/sampleshape</v>
           </cell>
           <cell r="C549" t="str">
-            <v>Sample Temperature</v>
+            <v>Sample Shape</v>
           </cell>
         </row>
         <row r="550">
           <cell r="A550" t="str">
-            <v>class/attribute/sampletemperatureunits</v>
+            <v>class/attribute/sampletemperature</v>
           </cell>
           <cell r="C550" t="str">
-            <v>Sample Temperature Units</v>
+            <v>Sample Temperature</v>
           </cell>
         </row>
         <row r="551">
           <cell r="A551" t="str">
-            <v>class/attribute/sampletype</v>
+            <v>class/attribute/sampletemperatureunits</v>
           </cell>
           <cell r="C551" t="str">
-            <v>Sample Type</v>
+            <v>Sample Temperature Units</v>
           </cell>
         </row>
         <row r="552">
           <cell r="A552" t="str">
-            <v>class/attribute/samplingfeaturename</v>
+            <v>class/attribute/sampletype</v>
           </cell>
           <cell r="C552" t="str">
-            <v>Sampling Feature Name</v>
+            <v>Sample Type</v>
           </cell>
         </row>
         <row r="553">
           <cell r="A553" t="str">
-            <v>class/attribute/samplingfeaturetype</v>
+            <v>class/attribute/samplingfeaturename</v>
           </cell>
           <cell r="C553" t="str">
-            <v>Sampling Feature Type</v>
+            <v>Sampling Feature Name</v>
           </cell>
         </row>
         <row r="554">
           <cell r="A554" t="str">
-            <v>class/attribute/samplingfeatureuri</v>
+            <v>class/attribute/samplingfeaturetype</v>
           </cell>
           <cell r="C554" t="str">
-            <v>Sampling Feature URI</v>
+            <v>Sampling Feature Type</v>
           </cell>
         </row>
         <row r="555">
           <cell r="A555" t="str">
-            <v>class/attribute/saturatedsampleconductivity</v>
+            <v>class/attribute/samplingfeatureuri</v>
           </cell>
           <cell r="C555" t="str">
-            <v>Saturated Sample Conductivity</v>
+            <v>Sampling Feature URI</v>
           </cell>
         </row>
         <row r="556">
           <cell r="A556" t="str">
-            <v>class/attribute/saturationfluid</v>
+            <v>class/attribute/saturatedsampleconductivity</v>
           </cell>
           <cell r="C556" t="str">
-            <v>Saturation Fluid</v>
+            <v>Saturated Sample Conductivity</v>
           </cell>
         </row>
         <row r="557">
           <cell r="A557" t="str">
-            <v>class/attribute/scannedfileurl</v>
+            <v>class/attribute/saturationfluid</v>
           </cell>
           <cell r="C557" t="str">
-            <v>ScannedFileURL</v>
+            <v>Saturation Fluid</v>
           </cell>
         </row>
         <row r="558">
           <cell r="A558" t="str">
-            <v>class/attribute/se-conductivity</v>
+            <v>class/attribute/scannedfileurl</v>
           </cell>
           <cell r="C558" t="str">
-            <v>Standard Error Conductivity</v>
+            <v>ScannedFileURL</v>
           </cell>
         </row>
         <row r="559">
           <cell r="A559" t="str">
-            <v>class/attribute/se-correctedgradient</v>
+            <v>class/attribute/se-conductivity</v>
           </cell>
           <cell r="C559" t="str">
-            <v>Standard Error Corrected Gradient</v>
+            <v>Standard Error Conductivity</v>
           </cell>
         </row>
         <row r="560">
           <cell r="A560" t="str">
-            <v>class/attribute/se-correctedheatflow</v>
+            <v>class/attribute/se-correctedgradient</v>
           </cell>
           <cell r="C560" t="str">
-            <v>Standard Error Corrected HeatFlow</v>
+            <v>Standard Error Corrected Gradient</v>
           </cell>
         </row>
         <row r="561">
           <cell r="A561" t="str">
-            <v>class/attribute/se-uncorrectedgradient</v>
+            <v>class/attribute/se-correctedheatflow</v>
           </cell>
           <cell r="C561" t="str">
-            <v>Standard Error Uncorrected Gradient</v>
+            <v>Standard Error Corrected HeatFlow</v>
           </cell>
         </row>
         <row r="562">
           <cell r="A562" t="str">
-            <v>class/attribute/se-uncorrectedheatflow</v>
+            <v>class/attribute/section-</v>
           </cell>
           <cell r="C562" t="str">
-            <v>Standard Error Uncorrected HeatFlow</v>
+            <v xml:space="preserve">Section </v>
           </cell>
         </row>
         <row r="563">
           <cell r="A563" t="str">
-            <v>class/attribute/section-</v>
+            <v>class/attribute/sectionpart</v>
           </cell>
           <cell r="C563" t="str">
-            <v xml:space="preserve">Section </v>
+            <v>Section Part</v>
           </cell>
         </row>
         <row r="564">
           <cell r="A564" t="str">
-            <v>class/attribute/sectionpart</v>
+            <v>class/attribute/seisometernetwork</v>
           </cell>
           <cell r="C564" t="str">
-            <v>Section Part</v>
+            <v>Seisometer Network</v>
           </cell>
         </row>
         <row r="565">
           <cell r="A565" t="str">
-            <v>class/attribute/seisometernetwork</v>
+            <v>class/attribute/se-uncorrectedgradient</v>
           </cell>
           <cell r="C565" t="str">
-            <v>Seisometer Network</v>
+            <v>Standard Error Uncorrected Gradient</v>
           </cell>
         </row>
         <row r="566">
           <cell r="A566" t="str">
-            <v>class/attribute/shape</v>
+            <v>class/attribute/se-uncorrectedheatflow</v>
           </cell>
           <cell r="C566" t="str">
-            <v>Shape</v>
+            <v>Standard Error Uncorrected HeatFlow</v>
           </cell>
         </row>
         <row r="567">
           <cell r="A567" t="str">
-            <v>class/attribute/shape-area</v>
+            <v>class/attribute/shape</v>
           </cell>
           <cell r="C567" t="str">
-            <v>Shape Area</v>
+            <v>Shape</v>
           </cell>
         </row>
         <row r="568">
           <cell r="A568" t="str">
-            <v>class/attribute/shape-length</v>
+            <v>class/attribute/shape-area</v>
           </cell>
           <cell r="C568" t="str">
-            <v>Shape Length</v>
+            <v>Shape Area</v>
           </cell>
         </row>
         <row r="569">
           <cell r="A569" t="str">
-            <v>class/attribute/shutinpressuremethod</v>
+            <v>class/attribute/shape-length</v>
           </cell>
           <cell r="C569" t="str">
-            <v>Shut In Pressure Method</v>
+            <v>Shape Length</v>
           </cell>
         </row>
         <row r="570">
           <cell r="A570" t="str">
-            <v>class/attribute/siteheatflow</v>
+            <v>class/attribute/shutinpressuremethod</v>
           </cell>
           <cell r="C570" t="str">
-            <v>Site Heat Flow</v>
+            <v>Shut In Pressure Method</v>
           </cell>
         </row>
         <row r="571">
           <cell r="A571" t="str">
-            <v>class/attribute/sitelocationname</v>
+            <v>class/attribute/siteheatflow</v>
           </cell>
           <cell r="C571" t="str">
-            <v>Site Location Name</v>
+            <v>Site Heat Flow</v>
           </cell>
         </row>
         <row r="572">
           <cell r="A572" t="str">
-            <v>class/attribute/sitelocationuri</v>
+            <v>class/attribute/sitelocationname</v>
           </cell>
           <cell r="C572" t="str">
-            <v>Site Location URI</v>
+            <v>Site Location Name</v>
           </cell>
         </row>
         <row r="573">
           <cell r="A573" t="str">
-            <v>class/attribute/sitename</v>
+            <v>class/attribute/sitelocationuri</v>
           </cell>
           <cell r="C573" t="str">
-            <v>Site Name</v>
+            <v>Site Location URI</v>
           </cell>
         </row>
         <row r="574">
           <cell r="A574" t="str">
-            <v>class/attribute/sitevaluemethod</v>
+            <v>class/attribute/sitename</v>
           </cell>
           <cell r="C574" t="str">
-            <v>Site Value Method</v>
+            <v>Site Name</v>
           </cell>
         </row>
         <row r="575">
           <cell r="A575" t="str">
-            <v>class/attribute/slipaccumulationinterval</v>
+            <v>class/attribute/sitevaluemethod</v>
           </cell>
           <cell r="C575" t="str">
-            <v>Slip Accumulation Interval</v>
+            <v>Site Value Method</v>
           </cell>
         </row>
         <row r="576">
           <cell r="A576" t="str">
-            <v>class/attribute/sliprate</v>
+            <v>class/attribute/slipaccumulationinterval</v>
           </cell>
           <cell r="C576" t="str">
-            <v>Slip Rate</v>
+            <v>Slip Accumulation Interval</v>
           </cell>
         </row>
         <row r="577">
           <cell r="A577" t="str">
-            <v>class/attribute/source</v>
+            <v>class/attribute/sliprate</v>
           </cell>
           <cell r="C577" t="str">
-            <v>Source</v>
+            <v>Slip Rate</v>
           </cell>
         </row>
         <row r="578">
           <cell r="A578" t="str">
-            <v>class/attribute/sourcecitation</v>
+            <v>class/attribute/source</v>
           </cell>
           <cell r="C578" t="str">
-            <v>Source Citation</v>
+            <v>Source</v>
           </cell>
         </row>
         <row r="579">
           <cell r="A579" t="str">
-            <v>class/attribute/sourcecitationuri</v>
+            <v>class/attribute/sourcecitation</v>
           </cell>
           <cell r="C579" t="str">
-            <v>Source Citation URI</v>
+            <v>Source Citation</v>
           </cell>
         </row>
         <row r="580">
           <cell r="A580" t="str">
-            <v>class/attribute/sourceuri</v>
+            <v>class/attribute/sourcecitationuri</v>
           </cell>
           <cell r="C580" t="str">
-            <v>Source URI</v>
+            <v>Source Citation URI</v>
           </cell>
         </row>
         <row r="581">
           <cell r="A581" t="str">
-            <v>class/attribute/spacingavg-ft</v>
+            <v>class/attribute/sourceuri</v>
           </cell>
           <cell r="C581" t="str">
-            <v>Spacing Avg ft</v>
+            <v>Source URI</v>
           </cell>
         </row>
         <row r="582">
           <cell r="A582" t="str">
-            <v>class/attribute/specification-uri</v>
+            <v>class/attribute/spacingavg-ft</v>
           </cell>
           <cell r="C582" t="str">
-            <v>specification  uri</v>
+            <v>Spacing Avg ft</v>
           </cell>
         </row>
         <row r="583">
@@ -7449,314 +7455,314 @@
         </row>
         <row r="584">
           <cell r="A584" t="str">
-            <v>class/attribute/specificheat</v>
+            <v>class/attribute/specification-uri</v>
           </cell>
           <cell r="C584" t="str">
-            <v>Specific Heat</v>
+            <v>specification  uri</v>
           </cell>
         </row>
         <row r="585">
           <cell r="A585" t="str">
-            <v>class/attribute/specificheat-kjkgc</v>
+            <v>class/attribute/specificheat</v>
           </cell>
           <cell r="C585" t="str">
-            <v>Specific Heat kJkgC</v>
+            <v>Specific Heat</v>
           </cell>
         </row>
         <row r="586">
           <cell r="A586" t="str">
-            <v>class/attribute/specificheatunits</v>
+            <v>class/attribute/specificheat-kjkgc</v>
           </cell>
           <cell r="C586" t="str">
-            <v>Specific Heat Units</v>
+            <v>Specific Heat kJkgC</v>
           </cell>
         </row>
         <row r="587">
           <cell r="A587" t="str">
-            <v>class/attribute/specificstorage</v>
+            <v>class/attribute/specificheatunits</v>
           </cell>
           <cell r="C587" t="str">
-            <v>Specific Storage</v>
+            <v>Specific Heat Units</v>
           </cell>
         </row>
         <row r="588">
           <cell r="A588" t="str">
-            <v>class/attribute/specificyield-percent</v>
+            <v>class/attribute/specificstorage</v>
           </cell>
           <cell r="C588" t="str">
-            <v>SpecificYield percent</v>
+            <v>Specific Storage</v>
           </cell>
         </row>
         <row r="589">
           <cell r="A589" t="str">
-            <v>class/attribute/specimencollectiondate</v>
+            <v>class/attribute/specificyield-percent</v>
           </cell>
           <cell r="C589" t="str">
-            <v>Specimen Collection Date</v>
+            <v>SpecificYield percent</v>
           </cell>
         </row>
         <row r="590">
           <cell r="A590" t="str">
-            <v>class/attribute/specimencollectionmethod</v>
+            <v>class/attribute/specimencollectiondate</v>
           </cell>
           <cell r="C590" t="str">
-            <v>Specimen Collection Method</v>
+            <v>Specimen Collection Date</v>
           </cell>
         </row>
         <row r="591">
           <cell r="A591" t="str">
-            <v>class/attribute/specimencollector</v>
+            <v>class/attribute/specimencollectionmethod</v>
           </cell>
           <cell r="C591" t="str">
-            <v>Specimen Collector</v>
+            <v>Specimen Collection Method</v>
           </cell>
         </row>
         <row r="592">
           <cell r="A592" t="str">
-            <v>class/attribute/specimencollectoruri</v>
+            <v>class/attribute/specimencollector</v>
           </cell>
           <cell r="C592" t="str">
-            <v>Specimen Collector URI</v>
+            <v>Specimen Collector</v>
           </cell>
         </row>
         <row r="593">
           <cell r="A593" t="str">
-            <v>class/attribute/specimencuration</v>
+            <v>class/attribute/specimencollectoruri</v>
           </cell>
           <cell r="C593" t="str">
-            <v>Specimen Curation</v>
+            <v>Specimen Collector URI</v>
           </cell>
         </row>
         <row r="594">
           <cell r="A594" t="str">
-            <v>class/attribute/specimendescription</v>
+            <v>class/attribute/specimencuration</v>
           </cell>
           <cell r="C594" t="str">
-            <v>Specimen Description</v>
+            <v>Specimen Curation</v>
           </cell>
         </row>
         <row r="595">
           <cell r="A595" t="str">
-            <v>class/attribute/specimenid</v>
+            <v>class/attribute/specimendescription</v>
           </cell>
           <cell r="C595" t="str">
-            <v>Specimen ID</v>
+            <v>Specimen Description</v>
           </cell>
         </row>
         <row r="596">
           <cell r="A596" t="str">
-            <v>class/attribute/specimenlabel</v>
+            <v>class/attribute/specimenid</v>
           </cell>
           <cell r="C596" t="str">
-            <v>Specimen Label</v>
+            <v>Specimen ID</v>
           </cell>
         </row>
         <row r="597">
           <cell r="A597" t="str">
-            <v>class/attribute/specimenmass-kg</v>
+            <v>class/attribute/specimenlabel</v>
           </cell>
           <cell r="C597" t="str">
-            <v>Specimen Mass kg</v>
+            <v>Specimen Label</v>
           </cell>
         </row>
         <row r="598">
           <cell r="A598" t="str">
-            <v>class/attribute/specimentype</v>
+            <v>class/attribute/specimenmass-kg</v>
           </cell>
           <cell r="C598" t="str">
-            <v>SpecimenType</v>
+            <v>Specimen Mass kg</v>
           </cell>
         </row>
         <row r="599">
           <cell r="A599" t="str">
-            <v>class/attribute/specimenuri</v>
+            <v>class/attribute/specimentype</v>
           </cell>
           <cell r="C599" t="str">
-            <v>Specimen URI</v>
+            <v>SpecimenType</v>
           </cell>
         </row>
         <row r="600">
           <cell r="A600" t="str">
-            <v>class/attribute/springname</v>
+            <v>class/attribute/specimenuri</v>
           </cell>
           <cell r="C600" t="str">
-            <v>Spring Name</v>
+            <v>Specimen URI</v>
           </cell>
         </row>
         <row r="601">
           <cell r="A601" t="str">
-            <v>class/attribute/spuddate</v>
+            <v>class/attribute/springname</v>
           </cell>
           <cell r="C601" t="str">
-            <v>Spud Date</v>
+            <v>Spring Name</v>
           </cell>
         </row>
         <row r="602">
           <cell r="A602" t="str">
-            <v>class/attribute/srs</v>
+            <v>class/attribute/spuddate</v>
           </cell>
           <cell r="C602" t="str">
-            <v>SRS</v>
+            <v>Spud Date</v>
           </cell>
         </row>
         <row r="603">
           <cell r="A603" t="str">
-            <v>class/attribute/standarddeviation</v>
+            <v>class/attribute/srs</v>
           </cell>
           <cell r="C603" t="str">
-            <v>Standard Deviation</v>
+            <v>SRS</v>
           </cell>
         </row>
         <row r="604">
           <cell r="A604" t="str">
-            <v>class/attribute/standardmagnitudeerror</v>
+            <v>class/attribute/standarddeviation</v>
           </cell>
           <cell r="C604" t="str">
-            <v>Standard Magnitude Error</v>
+            <v>Standard Deviation</v>
           </cell>
         </row>
         <row r="605">
           <cell r="A605" t="str">
-            <v>class/attribute/startreportinterval</v>
+            <v>class/attribute/standardmagnitudeerror</v>
           </cell>
           <cell r="C605" t="str">
-            <v>Start Report Interval</v>
+            <v>Standard Magnitude Error</v>
           </cell>
         </row>
         <row r="606">
           <cell r="A606" t="str">
-            <v>class/attribute/state</v>
+            <v>class/attribute/startreportinterval</v>
           </cell>
           <cell r="C606" t="str">
-            <v>State</v>
+            <v>Start Report Interval</v>
           </cell>
         </row>
         <row r="607">
           <cell r="A607" t="str">
-            <v>class/attribute/stationidentifier</v>
+            <v>class/attribute/state</v>
           </cell>
           <cell r="C607" t="str">
-            <v>Station Identifier</v>
+            <v>State</v>
           </cell>
         </row>
         <row r="608">
           <cell r="A608" t="str">
-            <v>class/attribute/stationname</v>
+            <v>class/attribute/stationidentifier</v>
           </cell>
           <cell r="C608" t="str">
-            <v>Station Name</v>
+            <v>Station Identifier</v>
           </cell>
         </row>
         <row r="609">
           <cell r="A609" t="str">
-            <v>class/attribute/statisticalprocedure</v>
+            <v>class/attribute/stationname</v>
           </cell>
           <cell r="C609" t="str">
-            <v>Statistical procedure</v>
+            <v>Station Name</v>
           </cell>
         </row>
         <row r="610">
           <cell r="A610" t="str">
-            <v>class/attribute/status</v>
+            <v>class/attribute/statisticalprocedure</v>
           </cell>
           <cell r="C610" t="str">
-            <v>Status</v>
+            <v>Statistical procedure</v>
           </cell>
         </row>
         <row r="611">
           <cell r="A611" t="str">
-            <v>class/attribute/statusdate</v>
+            <v>class/attribute/status</v>
           </cell>
           <cell r="C611" t="str">
-            <v>Status Date</v>
+            <v>Status</v>
           </cell>
         </row>
         <row r="612">
           <cell r="A612" t="str">
-            <v>class/attribute/stimulation</v>
+            <v>class/attribute/statusdate</v>
           </cell>
           <cell r="C612" t="str">
-            <v>Stimulation</v>
+            <v>Status Date</v>
           </cell>
         </row>
         <row r="613">
           <cell r="A613" t="str">
-            <v>class/attribute/surfacetemperature</v>
+            <v>class/attribute/stimulation</v>
           </cell>
           <cell r="C613" t="str">
-            <v>Surface Temperature</v>
+            <v>Stimulation</v>
           </cell>
         </row>
         <row r="614">
           <cell r="A614" t="str">
-            <v>class/attribute/symbol</v>
+            <v>class/attribute/surfacetemperature</v>
           </cell>
           <cell r="C614" t="str">
-            <v>Symbol</v>
+            <v>Surface Temperature</v>
           </cell>
         </row>
         <row r="615">
           <cell r="A615" t="str">
-            <v>class/attribute/systemtype</v>
+            <v>class/attribute/symbol</v>
           </cell>
           <cell r="C615" t="str">
-            <v>System Type</v>
+            <v>Symbol</v>
           </cell>
         </row>
         <row r="616">
           <cell r="A616" t="str">
-            <v>class/attribute/targetfeatureuri</v>
+            <v>class/attribute/systemtype</v>
           </cell>
           <cell r="C616" t="str">
-            <v>Target Feature URI</v>
+            <v>System Type</v>
           </cell>
         </row>
         <row r="617">
           <cell r="A617" t="str">
-            <v>class/attribute/targetformation</v>
+            <v>class/attribute/targetfeatureuri</v>
           </cell>
           <cell r="C617" t="str">
-            <v>Target Formation</v>
+            <v>Target Feature URI</v>
           </cell>
         </row>
         <row r="618">
           <cell r="A618" t="str">
-            <v>class/attribute/targetrockname</v>
+            <v>class/attribute/targetformation</v>
           </cell>
           <cell r="C618" t="str">
-            <v>Target Rock Name</v>
+            <v>Target Formation</v>
           </cell>
         </row>
         <row r="619">
           <cell r="A619" t="str">
-            <v>class/attribute/targetrockvolume-m3</v>
+            <v>class/attribute/targetrockname</v>
           </cell>
           <cell r="C619" t="str">
-            <v>Target Rock Volume m3</v>
+            <v>Target Rock Name</v>
           </cell>
         </row>
         <row r="620">
           <cell r="A620" t="str">
-            <v>class/attribute/tectonicprovince</v>
+            <v>class/attribute/targetrockvolume-m3</v>
           </cell>
           <cell r="C620" t="str">
-            <v>Tectonic Province</v>
+            <v>Target Rock Volume m3</v>
           </cell>
         </row>
         <row r="621">
           <cell r="A621" t="str">
-            <v>class/attribute/temperature</v>
+            <v>class/attribute/tectonicprovince</v>
           </cell>
           <cell r="C621" t="str">
-            <v>Temperature</v>
+            <v>Tectonic Province</v>
           </cell>
         </row>
         <row r="622">
           <cell r="A622" t="str">
-            <v>class/attribute/temperature-f</v>
+            <v>class/attribute/temperature</v>
           </cell>
           <cell r="C622" t="str">
-            <v>Temperature Fahrenheit</v>
+            <v>Temperature</v>
           </cell>
         </row>
         <row r="623">
@@ -7769,170 +7775,170 @@
         </row>
         <row r="624">
           <cell r="A624" t="str">
-            <v>class/attribute/temperatureflowing</v>
+            <v>class/attribute/temperature-f</v>
           </cell>
           <cell r="C624" t="str">
-            <v>Temperature Flowing</v>
+            <v>Temperature Fahrenheit</v>
           </cell>
         </row>
         <row r="625">
           <cell r="A625" t="str">
-            <v>class/attribute/temperaturemax-c</v>
+            <v>class/attribute/temperatureflowing</v>
           </cell>
           <cell r="C625" t="str">
-            <v>Temperature Max C</v>
+            <v>Temperature Flowing</v>
           </cell>
         </row>
         <row r="626">
           <cell r="A626" t="str">
-            <v>class/attribute/temperaturemeasuretype</v>
+            <v>class/attribute/temperaturemax-c</v>
           </cell>
           <cell r="C626" t="str">
-            <v>Temperature Measure Type</v>
+            <v>Temperature Max C</v>
           </cell>
         </row>
         <row r="627">
           <cell r="A627" t="str">
-            <v>class/attribute/temperaturemin-c</v>
+            <v>class/attribute/temperaturemeasuretype</v>
           </cell>
           <cell r="C627" t="str">
-            <v>Temperature Min C</v>
+            <v>Temperature Measure Type</v>
           </cell>
         </row>
         <row r="628">
           <cell r="A628" t="str">
-            <v>class/attribute/temperatureunits</v>
+            <v>class/attribute/temperaturemin-c</v>
           </cell>
           <cell r="C628" t="str">
-            <v>Temperature Units</v>
+            <v>Temperature Min C</v>
           </cell>
         </row>
         <row r="629">
           <cell r="A629" t="str">
-            <v>class/attribute/tempmeasurementdatetime</v>
+            <v>class/attribute/temperatureunits</v>
           </cell>
           <cell r="C629" t="str">
-            <v>Temp Measurement Date Time</v>
+            <v>Temperature Units</v>
           </cell>
         </row>
         <row r="630">
           <cell r="A630" t="str">
-            <v>class/attribute/tempmeasurementprocedure</v>
+            <v>class/attribute/tempmeasurementdatetime</v>
           </cell>
           <cell r="C630" t="str">
-            <v>Temp Measurement Procedure</v>
+            <v>Temp Measurement Date Time</v>
           </cell>
         </row>
         <row r="631">
           <cell r="A631" t="str">
-            <v>class/attribute/terraincorrection-mgal</v>
+            <v>class/attribute/tempmeasurementprocedure</v>
           </cell>
           <cell r="C631" t="str">
-            <v>Terrain Correction mgal</v>
+            <v>Temp Measurement Procedure</v>
           </cell>
         </row>
         <row r="632">
           <cell r="A632" t="str">
-            <v>class/attribute/testdatetime</v>
+            <v>class/attribute/terraincorrection-mgal</v>
           </cell>
           <cell r="C632" t="str">
-            <v>Test date time</v>
+            <v>Terrain Correction mgal</v>
           </cell>
         </row>
         <row r="633">
           <cell r="A633" t="str">
-            <v>class/attribute/testfluid</v>
+            <v>class/attribute/testdatetime</v>
           </cell>
           <cell r="C633" t="str">
-            <v>Test Fluid</v>
+            <v>Test date time</v>
           </cell>
         </row>
         <row r="634">
           <cell r="A634" t="str">
-            <v>class/attribute/testname</v>
+            <v>class/attribute/testfluid</v>
           </cell>
           <cell r="C634" t="str">
-            <v>Test Name</v>
+            <v>Test Fluid</v>
           </cell>
         </row>
         <row r="635">
           <cell r="A635" t="str">
-            <v>class/attribute/testnumber</v>
+            <v>class/attribute/testname</v>
           </cell>
           <cell r="C635" t="str">
-            <v>Test Number</v>
+            <v>Test Name</v>
           </cell>
         </row>
         <row r="636">
           <cell r="A636" t="str">
-            <v>class/attribute/testoperator</v>
+            <v>class/attribute/testnumber</v>
           </cell>
           <cell r="C636" t="str">
-            <v>Test Operator</v>
+            <v>Test Number</v>
           </cell>
         </row>
         <row r="637">
           <cell r="A637" t="str">
-            <v>class/attribute/testtype</v>
+            <v>class/attribute/testoperator</v>
           </cell>
           <cell r="C637" t="str">
-            <v>Test Type</v>
+            <v>Test Operator</v>
           </cell>
         </row>
         <row r="638">
           <cell r="A638" t="str">
-            <v>class/attribute/testtypedescription</v>
+            <v>class/attribute/testtype</v>
           </cell>
           <cell r="C638" t="str">
-            <v>Test Type Description</v>
+            <v>Test Type</v>
           </cell>
         </row>
         <row r="639">
           <cell r="A639" t="str">
-            <v>class/attribute/thermalconductivityunits</v>
+            <v>class/attribute/testtypedescription</v>
           </cell>
           <cell r="C639" t="str">
-            <v>Thermal Conductivity Units</v>
+            <v>Test Type Description</v>
           </cell>
         </row>
         <row r="640">
           <cell r="A640" t="str">
-            <v>class/attribute/thermaldiffusivity</v>
+            <v>class/attribute/thermalconductivityunits</v>
           </cell>
           <cell r="C640" t="str">
-            <v>Thermal Diffusivity</v>
+            <v>Thermal Conductivity Units</v>
           </cell>
         </row>
         <row r="641">
           <cell r="A641" t="str">
-            <v>class/attribute/thermalspringuri</v>
+            <v>class/attribute/thermaldiffusivity</v>
           </cell>
           <cell r="C641" t="str">
-            <v>Thermal Spring URI</v>
+            <v>Thermal Diffusivity</v>
           </cell>
         </row>
         <row r="642">
           <cell r="A642" t="str">
-            <v>class/attribute/timefinalshutin-min</v>
+            <v>class/attribute/thermalspringuri</v>
           </cell>
           <cell r="C642" t="str">
-            <v>Time Final Shut In min</v>
+            <v>Thermal Spring URI</v>
           </cell>
         </row>
         <row r="643">
           <cell r="A643" t="str">
-            <v>class/attribute/timeinitialshutin-min</v>
+            <v>class/attribute/timefinalshutin-min</v>
           </cell>
           <cell r="C643" t="str">
-            <v>Time Initial Shut In min</v>
+            <v>Time Final Shut In min</v>
           </cell>
         </row>
         <row r="644">
           <cell r="A644" t="str">
-            <v>class/attribute/timesincecirculation</v>
+            <v>class/attribute/timeinitialshutin-min</v>
           </cell>
           <cell r="C644" t="str">
-            <v>Time Since Circulation</v>
+            <v>Time Initial Shut In min</v>
           </cell>
         </row>
         <row r="645">
@@ -7940,143 +7946,143 @@
             <v>class/attribute/timesincecirculation</v>
           </cell>
           <cell r="C645" t="str">
-            <v xml:space="preserve">Time Since Circulation </v>
+            <v>Time Since Circulation</v>
           </cell>
         </row>
         <row r="646">
           <cell r="A646" t="str">
-            <v>class/attribute/toploggedinterval-ft</v>
+            <v>class/attribute/timesincecirculation</v>
           </cell>
           <cell r="C646" t="str">
-            <v>Top Logged Interval ft</v>
+            <v xml:space="preserve">Time Since Circulation </v>
           </cell>
         </row>
         <row r="647">
           <cell r="A647" t="str">
-            <v>class/attribute/totalmineheat-kj</v>
+            <v>class/attribute/toploggedinterval-ft</v>
           </cell>
           <cell r="C647" t="str">
-            <v>Total Mine Heat kJ</v>
+            <v>Top Logged Interval ft</v>
           </cell>
         </row>
         <row r="648">
           <cell r="A648" t="str">
-            <v>class/attribute/totalslip</v>
+            <v>class/attribute/totalmineheat-kj</v>
           </cell>
           <cell r="C648" t="str">
-            <v>Total Slip</v>
+            <v>Total Mine Heat kJ</v>
           </cell>
         </row>
         <row r="649">
           <cell r="A649" t="str">
-            <v>class/attribute/transmissivity</v>
+            <v>class/attribute/totalslip</v>
           </cell>
           <cell r="C649" t="str">
-            <v>Transmissivity</v>
+            <v>Total Slip</v>
           </cell>
         </row>
         <row r="650">
           <cell r="A650" t="str">
-            <v>class/attribute/transmissivity-units</v>
+            <v>class/attribute/township</v>
           </cell>
           <cell r="C650" t="str">
-            <v>Transmissivity units</v>
+            <v>Township</v>
           </cell>
         </row>
         <row r="651">
           <cell r="A651" t="str">
-            <v>class/attribute/trap</v>
+            <v>class/attribute/transmissivity</v>
           </cell>
           <cell r="C651" t="str">
-            <v>Trap</v>
+            <v>Transmissivity</v>
           </cell>
         </row>
         <row r="652">
           <cell r="A652" t="str">
-            <v>class/attribute/trueverticaldepth</v>
+            <v>class/attribute/transmissivity-units</v>
           </cell>
           <cell r="C652" t="str">
-            <v>True Vertical Depth</v>
+            <v>Transmissivity units</v>
           </cell>
         </row>
         <row r="653">
           <cell r="A653" t="str">
-            <v>class/attribute/twp</v>
+            <v>class/attribute/trap</v>
           </cell>
           <cell r="C653" t="str">
-            <v>TWP</v>
+            <v>Trap</v>
           </cell>
         </row>
         <row r="654">
           <cell r="A654" t="str">
-            <v>class/attribute/uncertainty</v>
+            <v>class/attribute/trueverticaldepth</v>
           </cell>
           <cell r="C654" t="str">
-            <v>uncertainty</v>
+            <v>True Vertical Depth</v>
           </cell>
         </row>
         <row r="655">
           <cell r="A655" t="str">
-            <v>class/attribute/uncertainty-mgal</v>
+            <v>class/attribute/twp</v>
           </cell>
           <cell r="C655" t="str">
-            <v>Uncertainty mgal</v>
+            <v>TWP</v>
           </cell>
         </row>
         <row r="656">
           <cell r="A656" t="str">
-            <v>class/attribute/uncertaintydensity</v>
+            <v>class/attribute/uncertainty</v>
           </cell>
           <cell r="C656" t="str">
-            <v>UncertaintyDensity</v>
+            <v>uncertainty</v>
           </cell>
         </row>
         <row r="657">
           <cell r="A657" t="str">
-            <v>class/attribute/uncertaintyspecificheat</v>
+            <v>class/attribute/uncertaintydensity</v>
           </cell>
           <cell r="C657" t="str">
-            <v>Uncertainty Specific Heat</v>
+            <v>UncertaintyDensity</v>
           </cell>
         </row>
         <row r="658">
           <cell r="A658" t="str">
-            <v>class/attribute/uncertaintytc</v>
+            <v>class/attribute/uncertainty-mgal</v>
           </cell>
           <cell r="C658" t="str">
-            <v>Uncertainty Thermal Conductivity</v>
+            <v>Uncertainty mgal</v>
           </cell>
         </row>
         <row r="659">
           <cell r="A659" t="str">
-            <v>class/attribute/uncertaintythermaldiffusivity</v>
+            <v>class/attribute/uncertaintyspecificheat</v>
           </cell>
           <cell r="C659" t="str">
-            <v>Uncertainty Thermal Diffusivity</v>
+            <v>Uncertainty Specific Heat</v>
           </cell>
         </row>
         <row r="660">
           <cell r="A660" t="str">
-            <v>class/attribute/units</v>
+            <v>class/attribute/uncertaintytc</v>
           </cell>
           <cell r="C660" t="str">
-            <v>Units Of Measure</v>
+            <v>Uncertainty Thermal Conductivity</v>
           </cell>
         </row>
         <row r="661">
           <cell r="A661" t="str">
-            <v>class/attribute/units-pressure</v>
+            <v>class/attribute/uncertaintythermaldiffusivity</v>
           </cell>
           <cell r="C661" t="str">
-            <v>Pressure units</v>
+            <v>Uncertainty Thermal Diffusivity</v>
           </cell>
         </row>
         <row r="662">
           <cell r="A662" t="str">
-            <v>class/attribute/units-temperature</v>
+            <v>class/attribute/units</v>
           </cell>
           <cell r="C662" t="str">
-            <v>Temperature units</v>
+            <v>Units Of Measure</v>
           </cell>
         </row>
         <row r="663">
@@ -8105,66 +8111,66 @@
         </row>
         <row r="666">
           <cell r="A666" t="str">
-            <v>class/attribute/unitsstorage</v>
+            <v>class/attribute/units-pressure</v>
           </cell>
           <cell r="C666" t="str">
-            <v>Storage units</v>
+            <v>Pressure units</v>
           </cell>
         </row>
         <row r="667">
           <cell r="A667" t="str">
-            <v>class/attribute/unitstc</v>
+            <v>class/attribute/unitsstorage</v>
           </cell>
           <cell r="C667" t="str">
-            <v>Thermal Conductivity Units</v>
+            <v>Storage units</v>
           </cell>
         </row>
         <row r="668">
           <cell r="A668" t="str">
-            <v>class/attribute/unitsthermaldiffusivity</v>
+            <v>class/attribute/unitstc</v>
           </cell>
           <cell r="C668" t="str">
-            <v>Thermal Diffusivity units</v>
+            <v>Thermal Conductivity Units</v>
           </cell>
         </row>
         <row r="669">
           <cell r="A669" t="str">
-            <v>class/attribute/updatedate</v>
+            <v>class/attribute/units-temperature</v>
           </cell>
           <cell r="C669" t="str">
-            <v>Update Date</v>
+            <v>Temperature units</v>
           </cell>
         </row>
         <row r="670">
           <cell r="A670" t="str">
-            <v>class/attribute/updatetimestamp</v>
+            <v>class/attribute/unitsthermaldiffusivity</v>
           </cell>
           <cell r="C670" t="str">
-            <v>Update Time Stamp</v>
+            <v>Thermal Diffusivity units</v>
           </cell>
         </row>
         <row r="671">
           <cell r="A671" t="str">
-            <v>class/attribute/useapplication</v>
+            <v>class/attribute/updatedate</v>
           </cell>
           <cell r="C671" t="str">
-            <v>Use Application</v>
+            <v>Update Date</v>
           </cell>
         </row>
         <row r="672">
           <cell r="A672" t="str">
-            <v>class/attribute/utm-e</v>
+            <v>class/attribute/updatetimestamp</v>
           </cell>
           <cell r="C672" t="str">
-            <v>UTM E</v>
+            <v>Update Time Stamp</v>
           </cell>
         </row>
         <row r="673">
           <cell r="A673" t="str">
-            <v>class/attribute/utm-n</v>
+            <v>class/attribute/useapplication</v>
           </cell>
           <cell r="C673" t="str">
-            <v>UTM N</v>
+            <v>Use Application</v>
           </cell>
         </row>
         <row r="674">
@@ -8177,281 +8183,297 @@
         </row>
         <row r="675">
           <cell r="A675" t="str">
-            <v>class/attribute/utmzone</v>
+            <v>class/attribute/utm-e</v>
           </cell>
           <cell r="C675" t="str">
-            <v>UTM Zone</v>
+            <v>UTM E</v>
           </cell>
         </row>
         <row r="676">
           <cell r="A676" t="str">
-            <v>class/attribute/ventelevation</v>
+            <v>class/attribute/utm-n</v>
           </cell>
           <cell r="C676" t="str">
-            <v>Vent Elevation</v>
+            <v>UTM N</v>
           </cell>
         </row>
         <row r="677">
           <cell r="A677" t="str">
-            <v>class/attribute/verticalconductivity-ft-day</v>
+            <v>class/attribute/utmzone</v>
           </cell>
           <cell r="C677" t="str">
-            <v>Vertical Conductivity ft day</v>
+            <v>UTM Zone</v>
           </cell>
         </row>
         <row r="678">
           <cell r="A678" t="str">
-            <v>class/attribute/verticaldatum</v>
+            <v>class/attribute/ventelevation</v>
           </cell>
           <cell r="C678" t="str">
-            <v>Vertical Datum</v>
+            <v>Vent Elevation</v>
           </cell>
         </row>
         <row r="679">
           <cell r="A679" t="str">
-            <v>class/attribute/verticalextentmax-m</v>
+            <v>class/attribute/verticalconductivity-ft-day</v>
           </cell>
           <cell r="C679" t="str">
-            <v>Vertical Extent Max m</v>
+            <v>Vertical Conductivity ft day</v>
           </cell>
         </row>
         <row r="680">
           <cell r="A680" t="str">
-            <v>class/attribute/verticalextentmin-m</v>
+            <v>class/attribute/verticaldatum</v>
           </cell>
           <cell r="C680" t="str">
-            <v>Vertical Extent Min m</v>
+            <v>Vertical Datum</v>
           </cell>
         </row>
         <row r="681">
           <cell r="A681" t="str">
-            <v>class/attribute/verticalunits</v>
+            <v>class/attribute/verticalextentmax-m</v>
           </cell>
           <cell r="C681" t="str">
-            <v>Vertical Units</v>
+            <v>Vertical Extent Max m</v>
           </cell>
         </row>
         <row r="682">
           <cell r="A682" t="str">
-            <v>class/attribute/viscosity</v>
+            <v>class/attribute/verticalextentmin-m</v>
           </cell>
           <cell r="C682" t="str">
-            <v>Viscosity</v>
+            <v>Vertical Extent Min m</v>
           </cell>
         </row>
         <row r="683">
           <cell r="A683" t="str">
-            <v>class/attribute/volcanicgroup</v>
+            <v>class/attribute/verticalunits</v>
           </cell>
           <cell r="C683" t="str">
-            <v>Volcanic Group</v>
+            <v>Vertical Units</v>
           </cell>
         </row>
         <row r="684">
           <cell r="A684" t="str">
-            <v>class/attribute/volcventname</v>
+            <v>class/attribute/viscosity</v>
           </cell>
           <cell r="C684" t="str">
-            <v>Volc Vent Name</v>
+            <v>Viscosity</v>
           </cell>
         </row>
         <row r="685">
           <cell r="A685" t="str">
-            <v>class/attribute/waterdensity-kgm3</v>
+            <v>class/attribute/volcanicgroup</v>
           </cell>
           <cell r="C685" t="str">
-            <v>Water Density  kgm3</v>
+            <v>Volcanic Group</v>
           </cell>
         </row>
         <row r="686">
           <cell r="A686" t="str">
-            <v>class/attribute/waterdensity-mgl</v>
+            <v>class/attribute/volcventname</v>
           </cell>
           <cell r="C686" t="str">
-            <v>Water Density  mgL</v>
+            <v>Volc Vent Name</v>
           </cell>
         </row>
         <row r="687">
           <cell r="A687" t="str">
-            <v>class/attribute/waterinjection-bbl</v>
+            <v>class/attribute/waterdensity-kgm3</v>
           </cell>
           <cell r="C687" t="str">
-            <v>Water Injection bbl</v>
+            <v>Water Density  kgm3</v>
           </cell>
         </row>
         <row r="688">
           <cell r="A688" t="str">
-            <v>class/attribute/watermass-kg</v>
+            <v>class/attribute/waterdensity-mgl</v>
           </cell>
           <cell r="C688" t="str">
-            <v>Water Mass kg</v>
+            <v>Water Density  mgL</v>
           </cell>
         </row>
         <row r="689">
           <cell r="A689" t="str">
-            <v>class/attribute/watersaturation-pct</v>
+            <v>class/attribute/waterinjection-bbl</v>
           </cell>
           <cell r="C689" t="str">
-            <v>Water Saturation pct</v>
+            <v>Water Injection bbl</v>
           </cell>
         </row>
         <row r="690">
           <cell r="A690" t="str">
-            <v>class/attribute/watershedname</v>
+            <v>class/attribute/watermass-kg</v>
           </cell>
           <cell r="C690" t="str">
-            <v>Watershed Name</v>
+            <v>Water Mass kg</v>
           </cell>
         </row>
         <row r="691">
           <cell r="A691" t="str">
-            <v>class/attribute/watertabletemperature</v>
+            <v>class/attribute/watersaturation-pct</v>
           </cell>
           <cell r="C691" t="str">
-            <v>Water Table Temperature</v>
+            <v>Water Saturation pct</v>
           </cell>
         </row>
         <row r="692">
           <cell r="A692" t="str">
-            <v>class/attribute/watertabletop</v>
+            <v>class/attribute/watershedname</v>
           </cell>
           <cell r="C692" t="str">
-            <v>Water Table Top</v>
+            <v>Watershed Name</v>
           </cell>
         </row>
         <row r="693">
           <cell r="A693" t="str">
-            <v>class/attribute/watertds-mgl</v>
+            <v>class/attribute/watertabletemperature</v>
           </cell>
           <cell r="C693" t="str">
-            <v>Water TDS mgl</v>
+            <v>Water Table Temperature</v>
           </cell>
         </row>
         <row r="694">
           <cell r="A694" t="str">
-            <v>class/attribute/wellborename</v>
+            <v>class/attribute/watertabletop</v>
           </cell>
           <cell r="C694" t="str">
-            <v xml:space="preserve">WellBore Name </v>
+            <v>Water Table Top</v>
           </cell>
         </row>
         <row r="695">
           <cell r="A695" t="str">
-            <v>class/attribute/wellboreshape</v>
+            <v>class/attribute/watertds-mgl</v>
           </cell>
           <cell r="C695" t="str">
-            <v>Well Bore Shape</v>
+            <v>Water TDS mgl</v>
           </cell>
         </row>
         <row r="696">
           <cell r="A696" t="str">
-            <v>class/attribute/wellboreuri</v>
+            <v>class/attribute/wellborename</v>
           </cell>
           <cell r="C696" t="str">
-            <v>WellBore URI</v>
+            <v xml:space="preserve">WellBore Name </v>
           </cell>
         </row>
         <row r="697">
           <cell r="A697" t="str">
-            <v>class/attribute/wellcount</v>
+            <v>class/attribute/wellboreshape</v>
           </cell>
           <cell r="C697" t="str">
-            <v>Well Count</v>
+            <v>Well Bore Shape</v>
           </cell>
         </row>
         <row r="698">
           <cell r="A698" t="str">
-            <v>class/attribute/welldrilldate</v>
+            <v>class/attribute/wellboreuri</v>
           </cell>
           <cell r="C698" t="str">
-            <v>Well Drill Date</v>
+            <v>WellBore URI</v>
           </cell>
         </row>
         <row r="699">
           <cell r="A699" t="str">
-            <v>class/attribute/welldrilldatetype</v>
+            <v>class/attribute/wellcount</v>
           </cell>
           <cell r="C699" t="str">
-            <v>Well Drill Date Type</v>
+            <v>Well Count</v>
           </cell>
         </row>
         <row r="700">
           <cell r="A700" t="str">
-            <v>class/attribute/wellheaderuri</v>
+            <v>class/attribute/welldrilldate</v>
           </cell>
           <cell r="C700" t="str">
-            <v>Well Header URI</v>
+            <v>Well Drill Date</v>
           </cell>
         </row>
         <row r="701">
           <cell r="A701" t="str">
-            <v>class/attribute/wellname</v>
+            <v>class/attribute/welldrilldatetype</v>
           </cell>
           <cell r="C701" t="str">
-            <v>Well Name</v>
+            <v>Well Drill Date Type</v>
           </cell>
         </row>
         <row r="702">
           <cell r="A702" t="str">
-            <v>class/attribute/welltype</v>
+            <v>class/attribute/wellheaderuri</v>
           </cell>
           <cell r="C702" t="str">
-            <v>Well Type</v>
+            <v>Well Header URI</v>
           </cell>
         </row>
         <row r="703">
           <cell r="A703" t="str">
-            <v>class/attribute/width-m</v>
+            <v>class/attribute/wellname</v>
           </cell>
           <cell r="C703" t="str">
-            <v>Width m</v>
+            <v>Well Name</v>
           </cell>
         </row>
         <row r="704">
           <cell r="A704" t="str">
-            <v>class/attribute/yearcommissioned</v>
+            <v>class/attribute/welltype</v>
           </cell>
           <cell r="C704" t="str">
-            <v>Year Commissioned</v>
+            <v>Well Type</v>
           </cell>
         </row>
         <row r="705">
           <cell r="A705" t="str">
-            <v>class/attribute/yearsinproduction</v>
+            <v>class/attribute/width-m</v>
           </cell>
           <cell r="C705" t="str">
-            <v>Years In Production</v>
+            <v>Width m</v>
           </cell>
         </row>
         <row r="706">
           <cell r="A706" t="str">
-            <v>class/attribute/youngerageuri</v>
+            <v>class/attribute/yearcommissioned</v>
           </cell>
           <cell r="C706" t="str">
-            <v>Younger Age URI</v>
+            <v>Year Commissioned</v>
           </cell>
         </row>
         <row r="707">
           <cell r="A707" t="str">
-            <v>class/attribute/youngestage</v>
+            <v>class/attribute/yearsinproduction</v>
           </cell>
           <cell r="C707" t="str">
-            <v>Youngest Age</v>
+            <v>Years In Production</v>
           </cell>
         </row>
         <row r="708">
           <cell r="A708" t="str">
-            <v>class/attribute/youngestradiometricage-ma</v>
+            <v>class/attribute/youngerageuri</v>
           </cell>
           <cell r="C708" t="str">
-            <v>Youngest Radiometric Age Ma</v>
+            <v>Younger Age URI</v>
           </cell>
         </row>
         <row r="709">
           <cell r="A709" t="str">
+            <v>class/attribute/youngestage</v>
+          </cell>
+          <cell r="C709" t="str">
+            <v>Youngest Age</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="A710" t="str">
+            <v>class/attribute/youngestradiometricage-ma</v>
+          </cell>
+          <cell r="C710" t="str">
+            <v>Youngest Radiometric Age Ma</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="A711" t="str">
             <v>class/attribute/zip</v>
           </cell>
-          <cell r="C709" t="str">
+          <cell r="C711" t="str">
             <v>Zip</v>
           </cell>
         </row>
@@ -10546,10 +10568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D709"/>
+  <dimension ref="A1:D711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A688" workbookViewId="0">
-      <selection activeCell="J694" sqref="J694"/>
+    <sheetView tabSelected="1" topLeftCell="A698" workbookViewId="0">
+      <selection activeCell="D718" sqref="D718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12225,7 +12247,7 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>LOOKUP(B105,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Depth</v>
+        <v>Depth Bottom Interval</v>
       </c>
       <c r="B105" t="s">
         <v>287</v>
@@ -12276,30 +12298,30 @@
         <v>Depth Determination Method</v>
       </c>
       <c r="B108" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C108" t="str">
         <f>LOOKUP(D108,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Extent</v>
+        <v>Observation Procedure</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>LOOKUP(B109,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Depth Determination Method</v>
+        <v>Depth ft</v>
       </c>
       <c r="B109" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C109" t="str">
         <f>LOOKUP(D109,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Observation Procedure</v>
+        <v>Feature Extent</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -12897,49 +12919,49 @@
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>LOOKUP(B147,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Elevation</v>
+        <v>Elevation  Ground Level feet</v>
       </c>
       <c r="B147" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C147" t="str">
         <f>LOOKUP(D147,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Position</v>
+        <v>Borehole Collar Elevation</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>LOOKUP(B148,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Elevation</v>
+        <v>Elevation Bottom Open Zone msl</v>
       </c>
       <c r="B148" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C148" t="str">
         <f>LOOKUP(D148,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Datum</v>
+        <v>Vertical Position</v>
       </c>
       <c r="D148" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>LOOKUP(B149,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Elevation  Ground Level feet</v>
+        <v>Elevation Datum</v>
       </c>
       <c r="B149" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C149" t="str">
         <f>LOOKUP(D149,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Borehole Collar Elevation</v>
+        <v>Vertical Datum</v>
       </c>
       <c r="D149" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -12964,30 +12986,30 @@
         <v>Elevation DF</v>
       </c>
       <c r="B151" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C151" t="str">
         <f>LOOKUP(D151,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Position</v>
+        <v>Borehole Collar Elevation</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>LOOKUP(B152,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Elevation DF</v>
+        <v>Elevation ft msl</v>
       </c>
       <c r="B152" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C152" t="str">
         <f>LOOKUP(D152,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Borehole Collar Elevation</v>
+        <v>Vertical Position</v>
       </c>
       <c r="D152" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -13028,30 +13050,30 @@
         <v>Elevation KB</v>
       </c>
       <c r="B155" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C155" t="str">
         <f>LOOKUP(D155,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Position</v>
+        <v>Borehole Collar Elevation</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>LOOKUP(B156,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Elevation KB</v>
+        <v>Elevation m</v>
       </c>
       <c r="B156" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C156" t="str">
         <f>LOOKUP(D156,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Borehole Collar Elevation</v>
+        <v>Vertical Position</v>
       </c>
       <c r="D156" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -13249,7 +13271,7 @@
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f>LOOKUP(B169,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Eq Log Measurement Date</v>
+        <v>Eq Log Temperature Bottom</v>
       </c>
       <c r="B169" t="s">
         <v>351</v>
@@ -13284,30 +13306,30 @@
         <v>Eq Log Temperature Top</v>
       </c>
       <c r="B171" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C171" t="str">
         <f>LOOKUP(D171,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Extent</v>
+        <v>Temperature</v>
       </c>
       <c r="D171" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f>LOOKUP(B172,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Eq Log Temperature Top</v>
+        <v>Eq Log Total Depth</v>
       </c>
       <c r="B172" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C172" t="str">
         <f>LOOKUP(D172,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Temperature</v>
+        <v>Vertical Extent</v>
       </c>
       <c r="D172" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -13940,30 +13962,30 @@
         <v>Fluid Temperature C</v>
       </c>
       <c r="B212" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C212" t="str">
         <f>LOOKUP(D212,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Temperature</v>
+        <v>Fluid Temperature</v>
       </c>
       <c r="D212" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f>LOOKUP(B213,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Fluid Temperature C</v>
+        <v>Fluid Temperature Centigrade</v>
       </c>
       <c r="B213" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C213" t="str">
         <f>LOOKUP(D213,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Fluid Temperature</v>
+        <v>Temperature</v>
       </c>
       <c r="D213" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -14356,7 +14378,7 @@
         <v>Gross Production Capacity</v>
       </c>
       <c r="B238" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C238" t="str">
         <f>LOOKUP(D238,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -14369,10 +14391,10 @@
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f>LOOKUP(B239,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Gross Production Capacity</v>
+        <v>Gross Production MWhr</v>
       </c>
       <c r="B239" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C239" t="str">
         <f>LOOKUP(D239,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -16353,7 +16375,7 @@
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
         <f>LOOKUP(B363,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>MetadataURI</v>
+        <v>metadata uri</v>
       </c>
       <c r="B363" t="s">
         <v>541</v>
@@ -17537,71 +17559,71 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="str">
         <f>LOOKUP(B437,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Percent Target Rock</v>
+        <v>Permeability Average m2</v>
       </c>
       <c r="B437" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C437" t="str">
         <f>LOOKUP(D437,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Air permeability</v>
+        <v>Permeability</v>
       </c>
       <c r="D437" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="str">
         <f>LOOKUP(B438,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Percent Target Rock</v>
+        <v>Permeability Average Method</v>
       </c>
       <c r="B438" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C438" t="str">
         <f>LOOKUP(D438,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Permeability</v>
+        <v>Observation Procedure</v>
       </c>
       <c r="D438" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="str">
         <f>LOOKUP(B439,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Percent Target Rock</v>
+        <v>Permeability Average Uncertainty</v>
       </c>
       <c r="B439" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C439" t="str">
         <f>LOOKUP(D439,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Observation Procedure</v>
+        <v>Uncertainty</v>
       </c>
       <c r="D439" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="str">
         <f>LOOKUP(B440,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Permeability Average Uncertainty</v>
+        <v>Permeability Max m2</v>
       </c>
       <c r="B440" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C440" t="str">
         <f>LOOKUP(D440,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Uncertainty</v>
+        <v>Permeability</v>
       </c>
       <c r="D440" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="str">
         <f>LOOKUP(B441,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Permeability Max m2</v>
+        <v>Permeability md</v>
       </c>
       <c r="B441" t="s">
         <v>614</v>
@@ -17617,10 +17639,10 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="str">
         <f>LOOKUP(B442,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Permeability Max m2</v>
+        <v>Permeability Min m2</v>
       </c>
       <c r="B442" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="C442" t="str">
         <f>LOOKUP(D442,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -17633,58 +17655,58 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="str">
         <f>LOOKUP(B443,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Permeability Max m2</v>
+        <v>Permeability units</v>
       </c>
       <c r="B443" t="s">
-        <v>624</v>
+        <v>837</v>
       </c>
       <c r="C443" t="str">
         <f>LOOKUP(D443,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>intrinsic permeability</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D443" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="str">
         <f>LOOKUP(B444,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Permeability Min m2</v>
+        <v>Permeability, air mD</v>
       </c>
       <c r="B444" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="C444" t="str">
         <f>LOOKUP(D444,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Permeability</v>
+        <v>Air permeability</v>
       </c>
       <c r="D444" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="str">
         <f>LOOKUP(B445,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Permeability units</v>
+        <v>Permeability, Commonly observed mD</v>
       </c>
       <c r="B445" t="s">
-        <v>837</v>
+        <v>618</v>
       </c>
       <c r="C445" t="str">
         <f>LOOKUP(D445,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Permeability</v>
       </c>
       <c r="D445" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="str">
         <f>LOOKUP(B446,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Permeability, Commonly observed mD</v>
+        <v>Permeability, Geometric mean  mD</v>
       </c>
       <c r="B446" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C446" t="str">
         <f>LOOKUP(D446,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -17697,49 +17719,49 @@
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="str">
         <f>LOOKUP(B447,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Permeability, Geometric mean  mD</v>
+        <v>Permeability, Intrinsic mD</v>
       </c>
       <c r="B447" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C447" t="str">
         <f>LOOKUP(D447,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Permeability</v>
+        <v>intrinsic permeability</v>
       </c>
       <c r="D447" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="str">
         <f>LOOKUP(B448,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Permeability, Intrinsic mD</v>
+        <v>Permeability, Local mD</v>
       </c>
       <c r="B448" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C448" t="str">
         <f>LOOKUP(D448,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>intrinsic permeability</v>
+        <v>Local permeability</v>
       </c>
       <c r="D448" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="str">
         <f>LOOKUP(B449,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Permeability, Local mD</v>
+        <v>Permeability, Mean intrinsic mD</v>
       </c>
       <c r="B449" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C449" t="str">
         <f>LOOKUP(D449,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Local permeability</v>
+        <v>intrinsic permeability</v>
       </c>
       <c r="D449" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -17969,7 +17991,7 @@
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="str">
         <f>LOOKUP(B464,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Plant Type</v>
+        <v>PLSS Location</v>
       </c>
       <c r="B464" t="s">
         <v>640</v>
@@ -18065,7 +18087,7 @@
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="str">
         <f>LOOKUP(B470,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>PLSS Township</v>
+        <v>Porosity Average Method</v>
       </c>
       <c r="B470" t="s">
         <v>646</v>
@@ -18196,7 +18218,7 @@
         <v>Porosity units</v>
       </c>
       <c r="B478" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C478" t="str">
         <f>LOOKUP(D478,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18209,26 +18231,26 @@
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="str">
         <f>LOOKUP(B479,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Porosity units</v>
+        <v>Position Accuracy</v>
       </c>
       <c r="B479" t="s">
-        <v>838</v>
+        <v>653</v>
       </c>
       <c r="C479" t="str">
         <f>LOOKUP(D479,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Uncertainty</v>
       </c>
       <c r="D479" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="str">
         <f>LOOKUP(B480,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Position Accuracy</v>
+        <v>Position Accuracy Meters</v>
       </c>
       <c r="B480" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C480" t="str">
         <f>LOOKUP(D480,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18241,10 +18263,10 @@
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="str">
         <f>LOOKUP(B481,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Position Accuracy Meters</v>
+        <v>Positional Accuracy</v>
       </c>
       <c r="B481" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C481" t="str">
         <f>LOOKUP(D481,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18257,74 +18279,74 @@
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="str">
         <f>LOOKUP(B482,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Positional Accuracy</v>
+        <v>Postal Address</v>
       </c>
       <c r="B482" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C482" t="str">
         <f>LOOKUP(D482,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Uncertainty</v>
+        <v>Postal Address</v>
       </c>
       <c r="D482" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="str">
         <f>LOOKUP(B483,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Postal Address</v>
+        <v>Power Plant Facility URI</v>
       </c>
       <c r="B483" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C483" t="str">
         <f>LOOKUP(D483,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Postal Address</v>
+        <v>Self Identifier</v>
       </c>
       <c r="D483" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="str">
         <f>LOOKUP(B484,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Power Plant Facility URI</v>
+        <v>Power Purchasers</v>
       </c>
       <c r="B484" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C484" t="str">
         <f>LOOKUP(D484,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Self Identifier</v>
+        <v>Customer</v>
       </c>
       <c r="D484" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="str">
         <f>LOOKUP(B485,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Power Purchasers</v>
+        <v>Preferred Pressure</v>
       </c>
       <c r="B485" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C485" t="str">
         <f>LOOKUP(D485,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Customer</v>
+        <v>Pressure</v>
       </c>
       <c r="D485" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="str">
         <f>LOOKUP(B486,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Preferred Pressure</v>
+        <v>Pressure Final Shut In</v>
       </c>
       <c r="B486" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C486" t="str">
         <f>LOOKUP(D486,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18337,10 +18359,10 @@
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="str">
         <f>LOOKUP(B487,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Pressure Final Shut In</v>
+        <v>Pressure Initial Shut In</v>
       </c>
       <c r="B487" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C487" t="str">
         <f>LOOKUP(D487,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18353,7 +18375,7 @@
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="str">
         <f>LOOKUP(B488,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Pressure Initial Shut In</v>
+        <v>Pressure psi</v>
       </c>
       <c r="B488" t="s">
         <v>660</v>
@@ -18369,17 +18391,17 @@
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="str">
         <f>LOOKUP(B489,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Pressure Initial Shut In</v>
+        <v>Pressure units</v>
       </c>
       <c r="B489" t="s">
-        <v>662</v>
+        <v>834</v>
       </c>
       <c r="C489" t="str">
         <f>LOOKUP(D489,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Pressure</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D489" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -18529,42 +18551,42 @@
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="str">
         <f>LOOKUP(B499,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Rank</v>
+        <v>Range</v>
       </c>
       <c r="B499" t="s">
-        <v>671</v>
+        <v>888</v>
       </c>
       <c r="C499" t="str">
         <f>LOOKUP(D499,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Type</v>
+        <v>Range Number</v>
       </c>
       <c r="D499" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="str">
         <f>LOOKUP(B500,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Recharge Procedure 1</v>
+        <v>Rank</v>
       </c>
       <c r="B500" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C500" t="str">
         <f>LOOKUP(D500,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Observation Procedure</v>
+        <v>Feature Type</v>
       </c>
       <c r="D500" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="str">
         <f>LOOKUP(B501,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Recharge Procedure 2</v>
+        <v>Recharge Procedure 1</v>
       </c>
       <c r="B501" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C501" t="str">
         <f>LOOKUP(D501,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18577,90 +18599,90 @@
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="str">
         <f>LOOKUP(B502,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Record Name</v>
+        <v>Recharge Procedure 2</v>
       </c>
       <c r="B502" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C502" t="str">
         <f>LOOKUP(D502,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Observation Name</v>
+        <v>Observation Procedure</v>
       </c>
       <c r="D502" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="str">
         <f>LOOKUP(B503,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Recurrence Interval</v>
+        <v>Record Name</v>
       </c>
       <c r="B503" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C503" t="str">
         <f>LOOKUP(D503,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Periodicity</v>
+        <v>Observation Name</v>
       </c>
       <c r="D503" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="str">
         <f>LOOKUP(B504,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Registrant</v>
+        <v>Recurrence Interval</v>
       </c>
       <c r="B504" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C504" t="str">
         <f>LOOKUP(D504,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Resource Responsible Party</v>
+        <v>Periodicity</v>
       </c>
       <c r="D504" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="str">
         <f>LOOKUP(B505,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Registrant URI</v>
+        <v>Registrant</v>
       </c>
       <c r="B505" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C505" t="str">
         <f>LOOKUP(D505,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Agent Identifier</v>
+        <v>Resource Responsible Party</v>
       </c>
       <c r="D505" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="str">
         <f>LOOKUP(B506,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Related Fault</v>
+        <v>Registrant URI</v>
       </c>
       <c r="B506" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C506" t="str">
         <f>LOOKUP(D506,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Relation</v>
+        <v>Agent Identifier</v>
       </c>
       <c r="D506" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="str">
         <f>LOOKUP(B507,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Related Fault URI</v>
+        <v>Related Fault</v>
       </c>
       <c r="B507" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C507" t="str">
         <f>LOOKUP(D507,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18673,10 +18695,10 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="str">
         <f>LOOKUP(B508,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Related Feature</v>
+        <v>Related Fault URI</v>
       </c>
       <c r="B508" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C508" t="str">
         <f>LOOKUP(D508,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18689,10 +18711,10 @@
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="str">
         <f>LOOKUP(B509,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Related Heat Flow Intervals URI</v>
+        <v>Related Feature</v>
       </c>
       <c r="B509" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C509" t="str">
         <f>LOOKUP(D509,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18705,42 +18727,42 @@
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="str">
         <f>LOOKUP(B510,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Related Resource</v>
+        <v>Related Heat Flow Intervals URI</v>
       </c>
       <c r="B510" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C510" t="str">
         <f>LOOKUP(D510,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Related Resource</v>
+        <v>Relation</v>
       </c>
       <c r="D510" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="str">
         <f>LOOKUP(B511,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Related Resources</v>
+        <v>Related Resource</v>
       </c>
       <c r="B511" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C511" t="str">
         <f>LOOKUP(D511,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Relation</v>
+        <v>Related Resource</v>
       </c>
       <c r="D511" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="str">
         <f>LOOKUP(B512,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Related Sample URI</v>
+        <v>Related Resources</v>
       </c>
       <c r="B512" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C512" t="str">
         <f>LOOKUP(D512,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18753,10 +18775,10 @@
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="str">
         <f>LOOKUP(B513,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Related Water Chemistry</v>
+        <v>Related Sample URI</v>
       </c>
       <c r="B513" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C513" t="str">
         <f>LOOKUP(D513,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18769,58 +18791,58 @@
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="str">
         <f>LOOKUP(B514,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Release Date</v>
+        <v>Related Water Chemistry</v>
       </c>
       <c r="B514" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C514" t="str">
         <f>LOOKUP(D514,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Publication Date</v>
+        <v>Relation</v>
       </c>
       <c r="D514" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
         <f>LOOKUP(B515,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Remarks</v>
+        <v>Release Date</v>
       </c>
       <c r="B515" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C515" t="str">
         <f>LOOKUP(D515,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Information</v>
+        <v>Publication Date</v>
       </c>
       <c r="D515" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="str">
         <f>LOOKUP(B516,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Report Year</v>
+        <v>Remarks</v>
       </c>
       <c r="B516" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C516" t="str">
         <f>LOOKUP(D516,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Event in History</v>
+        <v>Information</v>
       </c>
       <c r="D516" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="str">
         <f>LOOKUP(B517,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Reporting Period</v>
+        <v>Report Year</v>
       </c>
       <c r="B517" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C517" t="str">
         <f>LOOKUP(D517,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -18833,186 +18855,186 @@
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="str">
         <f>LOOKUP(B518,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Representative Age URI</v>
+        <v>Reporting Period</v>
       </c>
       <c r="B518" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C518" t="str">
         <f>LOOKUP(D518,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Age</v>
+        <v>Event in History</v>
       </c>
       <c r="D518" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="str">
         <f>LOOKUP(B519,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Representative Lithology URI</v>
+        <v>Representative Age URI</v>
       </c>
       <c r="B519" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C519" t="str">
         <f>LOOKUP(D519,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Lithology Type</v>
+        <v>Age</v>
       </c>
       <c r="D519" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="str">
         <f>LOOKUP(B520,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Reservoir Favorability</v>
+        <v>Representative Lithology URI</v>
       </c>
       <c r="B520" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C520" t="str">
         <f>LOOKUP(D520,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Resource Assessment</v>
+        <v>Lithology Type</v>
       </c>
       <c r="D520" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="str">
         <f>LOOKUP(B521,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Reservoir Favorability Methodology</v>
+        <v>Reservoir Favorability</v>
       </c>
       <c r="B521" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C521" t="str">
         <f>LOOKUP(D521,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Observation Procedure</v>
+        <v>Resource Assessment</v>
       </c>
       <c r="D521" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="str">
         <f>LOOKUP(B522,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Reservoir Favorability Uncertainty</v>
+        <v>Reservoir Favorability Methodology</v>
       </c>
       <c r="B522" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C522" t="str">
         <f>LOOKUP(D522,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Uncertainty</v>
+        <v>Observation Procedure</v>
       </c>
       <c r="D522" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="str">
         <f>LOOKUP(B523,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v xml:space="preserve">Reservoir Name </v>
+        <v>Reservoir Favorability Uncertainty</v>
       </c>
       <c r="B523" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C523" t="str">
         <f>LOOKUP(D523,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Name</v>
+        <v>Uncertainty</v>
       </c>
       <c r="D523" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="str">
         <f>LOOKUP(B524,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Reservoir URI</v>
+        <v xml:space="preserve">Reservoir Name </v>
       </c>
       <c r="B524" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C524" t="str">
         <f>LOOKUP(D524,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Identifier</v>
+        <v>Feature Name</v>
       </c>
       <c r="D524" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="str">
         <f>LOOKUP(B525,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Resource Type</v>
+        <v>Reservoir URI</v>
       </c>
       <c r="B525" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C525" t="str">
         <f>LOOKUP(D525,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Type</v>
+        <v>Feature Identifier</v>
       </c>
       <c r="D525" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="str">
         <f>LOOKUP(B526,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Result</v>
+        <v>Resource Type</v>
       </c>
       <c r="B526" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C526" t="str">
         <f>LOOKUP(D526,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Quantifier</v>
+        <v>Feature Type</v>
       </c>
       <c r="D526" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="str">
         <f>LOOKUP(B527,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>RGE</v>
-      </c>
-      <c r="B527" s="2" t="s">
-        <v>885</v>
+        <v>Result</v>
+      </c>
+      <c r="B527" t="s">
+        <v>700</v>
       </c>
       <c r="C527" t="str">
         <f>LOOKUP(D527,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Range Number</v>
+        <v>Quantifier</v>
       </c>
       <c r="D527" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="str">
         <f>LOOKUP(B528,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Rock Name</v>
-      </c>
-      <c r="B528" t="s">
-        <v>701</v>
+        <v>RGE</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>885</v>
       </c>
       <c r="C528" t="str">
         <f>LOOKUP(D528,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Category  Name</v>
+        <v>Range Number</v>
       </c>
       <c r="D528" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="str">
         <f>LOOKUP(B529,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Rock Type</v>
+        <v>Rock Name</v>
       </c>
       <c r="B529" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C529" t="str">
         <f>LOOKUP(D529,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -19025,90 +19047,90 @@
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="str">
         <f>LOOKUP(B530,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Salinity</v>
+        <v>Rock Type</v>
       </c>
       <c r="B530" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C530" t="str">
         <f>LOOKUP(D530,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Chemical Character</v>
+        <v>Category  Name</v>
       </c>
       <c r="D530" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="str">
         <f>LOOKUP(B531,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Collection Date</v>
+        <v>Salinity</v>
       </c>
       <c r="B531" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C531" t="str">
         <f>LOOKUP(D531,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>History</v>
+        <v>Chemical Character</v>
       </c>
       <c r="D531" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="str">
         <f>LOOKUP(B532,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Collection Method</v>
+        <v>Sample Collection Date</v>
       </c>
       <c r="B532" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C532" t="str">
         <f>LOOKUP(D532,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Observation Procedure</v>
+        <v>History</v>
       </c>
       <c r="D532" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="str">
         <f>LOOKUP(B533,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Cure Duration</v>
+        <v>Sample Collection Method</v>
       </c>
       <c r="B533" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C533" t="str">
         <f>LOOKUP(D533,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Observation History</v>
+        <v>Observation Procedure</v>
       </c>
       <c r="D533" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="str">
         <f>LOOKUP(B534,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Density</v>
+        <v>Sample Cure Duration</v>
       </c>
       <c r="B534" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C534" t="str">
         <f>LOOKUP(D534,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Density</v>
+        <v>Observation History</v>
       </c>
       <c r="D534" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="str">
         <f>LOOKUP(B535,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Density g-cc</v>
+        <v>Sample Density</v>
       </c>
       <c r="B535" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C535" t="str">
         <f>LOOKUP(D535,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -19121,42 +19143,42 @@
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="str">
         <f>LOOKUP(B536,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Density Units</v>
+        <v>Sample Density g-cc</v>
       </c>
       <c r="B536" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C536" t="str">
         <f>LOOKUP(D536,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Density</v>
       </c>
       <c r="D536" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="str">
         <f>LOOKUP(B537,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Depth</v>
+        <v>Sample Density Units</v>
       </c>
       <c r="B537" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C537" t="str">
         <f>LOOKUP(D537,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Extent</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D537" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="str">
         <f>LOOKUP(B538,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Depth meters</v>
+        <v>Sample Depth</v>
       </c>
       <c r="B538" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C538" t="str">
         <f>LOOKUP(D538,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -19169,26 +19191,26 @@
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="str">
         <f>LOOKUP(B539,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Dimensions Height</v>
+        <v>Sample Depth meters</v>
       </c>
       <c r="B539" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C539" t="str">
         <f>LOOKUP(D539,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Extent</v>
+        <v>Vertical Extent</v>
       </c>
       <c r="D539" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="str">
         <f>LOOKUP(B540,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Dimensions Length</v>
+        <v>Sample Dimensions Height</v>
       </c>
       <c r="B540" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C540" t="str">
         <f>LOOKUP(D540,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -19201,170 +19223,170 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="str">
         <f>LOOKUP(B541,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Dimensions Units</v>
+        <v>Sample Dimensions Length</v>
       </c>
       <c r="B541" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C541" t="str">
         <f>LOOKUP(D541,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Extent</v>
       </c>
       <c r="D541" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="str">
         <f>LOOKUP(B542,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Dimensions Width</v>
+        <v>Sample Dimensions Units</v>
       </c>
       <c r="B542" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C542" t="str">
         <f>LOOKUP(D542,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Extent</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D542" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="str">
         <f>LOOKUP(B543,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Mass kg</v>
+        <v>Sample Dimensions Width</v>
       </c>
       <c r="B543" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C543" t="str">
         <f>LOOKUP(D543,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Mass</v>
+        <v>Extent</v>
       </c>
       <c r="D543" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="str">
         <f>LOOKUP(B544,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Measurement Date</v>
+        <v>Sample Mass kg</v>
       </c>
       <c r="B544" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C544" t="str">
         <f>LOOKUP(D544,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>History</v>
+        <v>Mass</v>
       </c>
       <c r="D544" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="str">
         <f>LOOKUP(B545,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Shape</v>
+        <v>Sample Measurement Date</v>
       </c>
       <c r="B545" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C545" t="str">
         <f>LOOKUP(D545,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Shape</v>
+        <v>History</v>
       </c>
       <c r="D545" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="str">
         <f>LOOKUP(B546,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Temperature</v>
+        <v>Sample Shape</v>
       </c>
       <c r="B546" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C546" t="str">
         <f>LOOKUP(D546,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Temperature</v>
+        <v>Shape</v>
       </c>
       <c r="D546" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="str">
         <f>LOOKUP(B547,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Temperature Units</v>
+        <v>Sample Temperature</v>
       </c>
       <c r="B547" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C547" t="str">
         <f>LOOKUP(D547,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Temperature</v>
       </c>
       <c r="D547" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="str">
         <f>LOOKUP(B548,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sample Type</v>
+        <v>Sample Temperature Units</v>
       </c>
       <c r="B548" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C548" t="str">
         <f>LOOKUP(D548,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Material Type</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D548" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="str">
         <f>LOOKUP(B549,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sampled Feature Age Label</v>
+        <v>Sample Type</v>
       </c>
       <c r="B549" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="C549" t="str">
         <f>LOOKUP(D549,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Name</v>
+        <v>Material Type</v>
       </c>
       <c r="D549" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="str">
         <f>LOOKUP(B550,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sampled Feature Max Age Ma</v>
+        <v>Sampled Feature Age Label</v>
       </c>
       <c r="B550" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C550" t="str">
         <f>LOOKUP(D550,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Time Position</v>
+        <v>Name</v>
       </c>
       <c r="D550" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="str">
         <f>LOOKUP(B551,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sampled Feature Min Age Ma</v>
+        <v>Sampled Feature Max Age Ma</v>
       </c>
       <c r="B551" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C551" t="str">
         <f>LOOKUP(D551,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -19377,26 +19399,26 @@
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="str">
         <f>LOOKUP(B552,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sampled Geologic Unit</v>
+        <v>Sampled Feature Min Age Ma</v>
       </c>
       <c r="B552" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C552" t="str">
         <f>LOOKUP(D552,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Category  Name</v>
+        <v>Time Position</v>
       </c>
       <c r="D552" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="str">
         <f>LOOKUP(B553,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sampled Geologic Unit Age</v>
+        <v>Sampled Geologic Unit</v>
       </c>
       <c r="B553" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C553" t="str">
         <f>LOOKUP(D553,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -19409,145 +19431,145 @@
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="str">
         <f>LOOKUP(B554,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sampling Feature Name</v>
+        <v>Sampled Geologic Unit Age</v>
       </c>
       <c r="B554" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="C554" t="str">
         <f>LOOKUP(D554,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Name</v>
+        <v>Category  Name</v>
       </c>
       <c r="D554" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="str">
         <f>LOOKUP(B555,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sampling Feature Type</v>
+        <v>Sampling Feature Name</v>
       </c>
       <c r="B555" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C555" t="str">
         <f>LOOKUP(D555,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Type</v>
+        <v>Feature Name</v>
       </c>
       <c r="D555" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="str">
         <f>LOOKUP(B556,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Sampling Feature URI</v>
+        <v>Sampling Feature Type</v>
       </c>
       <c r="B556" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C556" t="str">
         <f>LOOKUP(D556,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Identifier</v>
+        <v>Feature Type</v>
       </c>
       <c r="D556" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="str">
         <f>LOOKUP(B557,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Saturated Sample Conductivity</v>
+        <v>Sampling Feature URI</v>
       </c>
       <c r="B557" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C557" t="str">
         <f>LOOKUP(D557,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Thermal Conductivity</v>
+        <v>Feature Identifier</v>
       </c>
       <c r="D557" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="str">
         <f>LOOKUP(B558,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Saturation Fluid</v>
+        <v>Saturated Sample Conductivity</v>
       </c>
       <c r="B558" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C558" t="str">
         <f>LOOKUP(D558,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Material Type</v>
+        <v>Thermal Conductivity</v>
       </c>
       <c r="D558" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="str">
         <f>LOOKUP(B559,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>ScannedFileURL</v>
+        <v>Saturation Fluid</v>
       </c>
       <c r="B559" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C559" t="str">
         <f>LOOKUP(D559,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Access Link</v>
+        <v>Material Type</v>
       </c>
       <c r="D559" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="str">
         <f>LOOKUP(B560,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Section Part</v>
+        <v>ScannedFileURL</v>
       </c>
       <c r="B560" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C560" t="str">
         <f>LOOKUP(D560,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Geospatial Position</v>
+        <v>Access Link</v>
       </c>
       <c r="D560" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="str">
         <f>LOOKUP(B561,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Seisometer Network</v>
+        <v xml:space="preserve">Section </v>
       </c>
       <c r="B561" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C561" t="str">
         <f>LOOKUP(D561,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Uncertainty</v>
+        <v>Geospatial Position</v>
       </c>
       <c r="D561" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="str">
         <f>LOOKUP(B562,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Seisometer Network</v>
+        <v>Section Part</v>
       </c>
       <c r="B562" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C562" t="str">
         <f>LOOKUP(D562,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Uncertainty</v>
+        <v>Geospatial Position</v>
       </c>
       <c r="D562" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -19825,90 +19847,90 @@
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="str">
         <f>LOOKUP(B580,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Spacing Avg ft</v>
+        <v>Specific Heat</v>
       </c>
       <c r="B580" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C580" t="str">
         <f>LOOKUP(D580,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Description</v>
+        <v>Temperature</v>
       </c>
       <c r="D580" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="str">
         <f>LOOKUP(B581,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Specific Heat</v>
+        <v>Specific Heat kJkgC</v>
       </c>
       <c r="B581" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C581" t="str">
         <f>LOOKUP(D581,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Temperature</v>
+        <v>Specific Heat</v>
       </c>
       <c r="D581" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="str">
         <f>LOOKUP(B582,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Specific Heat kJkgC</v>
+        <v>Specific Heat Units</v>
       </c>
       <c r="B582" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C582" t="str">
         <f>LOOKUP(D582,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Specific Heat</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D582" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="str">
         <f>LOOKUP(B583,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Specific Heat Units</v>
+        <v>Specific Storage</v>
       </c>
       <c r="B583" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C583" t="str">
         <f>LOOKUP(D583,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Aquifer Productivity</v>
       </c>
       <c r="D583" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="str">
         <f>LOOKUP(B584,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Specific Storage</v>
+        <v>specification  uri</v>
       </c>
       <c r="B584" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C584" t="str">
         <f>LOOKUP(D584,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Aquifer Productivity</v>
+        <v>Description</v>
       </c>
       <c r="D584" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="str">
         <f>LOOKUP(B585,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>specification  uri</v>
+        <v>Specification URI</v>
       </c>
       <c r="B585" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C585" t="str">
         <f>LOOKUP(D585,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -20225,26 +20247,26 @@
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="str">
         <f>LOOKUP(B605,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Standard Error Corrected HeatFlow</v>
+        <v>Standard Error Uncorrected Gradient</v>
       </c>
       <c r="B605" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C605" t="str">
         <f>LOOKUP(D605,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Geospatial Position</v>
+        <v>Uncertainty</v>
       </c>
       <c r="D605" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="str">
         <f>LOOKUP(B606,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Standard Magnitude Error</v>
+        <v>Standard Error Uncorrected HeatFlow</v>
       </c>
       <c r="B606" t="s">
-        <v>779</v>
+        <v>737</v>
       </c>
       <c r="C606" t="str">
         <f>LOOKUP(D606,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -20257,321 +20279,321 @@
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="str">
         <f>LOOKUP(B607,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Start Report Interval</v>
+        <v>Standard Magnitude Error</v>
       </c>
       <c r="B607" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C607" t="str">
         <f>LOOKUP(D607,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Event in History</v>
+        <v>Uncertainty</v>
       </c>
       <c r="D607" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="str">
         <f>LOOKUP(B608,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>State</v>
+        <v>Start Report Interval</v>
       </c>
       <c r="B608" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C608" t="str">
         <f>LOOKUP(D608,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Location Name</v>
+        <v>Event in History</v>
       </c>
       <c r="D608" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="str">
         <f>LOOKUP(B609,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Station Identifier</v>
+        <v>State</v>
       </c>
       <c r="B609" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C609" t="str">
         <f>LOOKUP(D609,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Sampling Feature Identifier</v>
+        <v>Location Name</v>
       </c>
       <c r="D609" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="str">
         <f>LOOKUP(B610,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Station Name</v>
+        <v>Station Identifier</v>
       </c>
       <c r="B610" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C610" t="str">
         <f>LOOKUP(D610,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Name</v>
+        <v>Sampling Feature Identifier</v>
       </c>
       <c r="D610" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="str">
         <f>LOOKUP(B611,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Statistical procedure</v>
+        <v>Station Name</v>
       </c>
       <c r="B611" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C611" t="str">
         <f>LOOKUP(D611,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Observation Procedure</v>
+        <v>Feature Name</v>
       </c>
       <c r="D611" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="str">
         <f>LOOKUP(B612,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Status</v>
+        <v>Statistical procedure</v>
       </c>
       <c r="B612" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C612" t="str">
         <f>LOOKUP(D612,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Facility Status</v>
+        <v>Observation Procedure</v>
       </c>
       <c r="D612" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="str">
         <f>LOOKUP(B613,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Status Date</v>
+        <v>Status</v>
       </c>
       <c r="B613" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C613" t="str">
         <f>LOOKUP(D613,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Reporting date</v>
+        <v>Facility Status</v>
       </c>
       <c r="D613" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="str">
         <f>LOOKUP(B614,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Stimulation</v>
+        <v>Status Date</v>
       </c>
       <c r="B614" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C614" t="str">
         <f>LOOKUP(D614,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Process Type</v>
+        <v>Reporting date</v>
       </c>
       <c r="D614" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="str">
         <f>LOOKUP(B615,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Storage units</v>
+        <v>Stimulation</v>
       </c>
       <c r="B615" t="s">
-        <v>839</v>
+        <v>787</v>
       </c>
       <c r="C615" t="str">
         <f>LOOKUP(D615,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Process Type</v>
       </c>
       <c r="D615" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="str">
         <f>LOOKUP(B616,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Surface Temperature</v>
+        <v>Storage units</v>
       </c>
       <c r="B616" t="s">
-        <v>788</v>
+        <v>839</v>
       </c>
       <c r="C616" t="str">
         <f>LOOKUP(D616,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Temperature</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D616" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="str">
         <f>LOOKUP(B617,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Symbol</v>
+        <v>Surface Temperature</v>
       </c>
       <c r="B617" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C617" t="str">
         <f>LOOKUP(D617,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Representation</v>
+        <v>Temperature</v>
       </c>
       <c r="D617" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="str">
         <f>LOOKUP(B618,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>System Type</v>
+        <v>Symbol</v>
       </c>
       <c r="B618" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C618" t="str">
         <f>LOOKUP(D618,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Procedure Type</v>
+        <v>Representation</v>
       </c>
       <c r="D618" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="str">
         <f>LOOKUP(B619,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Target Feature URI</v>
+        <v>System Type</v>
       </c>
       <c r="B619" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C619" t="str">
         <f>LOOKUP(D619,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Identifier</v>
+        <v>Procedure Type</v>
       </c>
       <c r="D619" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="str">
         <f>LOOKUP(B620,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Target Formation</v>
+        <v>Target Feature URI</v>
       </c>
       <c r="B620" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C620" t="str">
         <f>LOOKUP(D620,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Name</v>
+        <v>Feature Identifier</v>
       </c>
       <c r="D620" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="str">
         <f>LOOKUP(B621,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Target Rock Name</v>
+        <v>Target Formation</v>
       </c>
       <c r="B621" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C621" t="str">
         <f>LOOKUP(D621,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Category  Name</v>
+        <v>Feature Name</v>
       </c>
       <c r="D621" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="str">
         <f>LOOKUP(B622,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Target Rock Volume m3</v>
+        <v>Target Rock Name</v>
       </c>
       <c r="B622" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C622" t="str">
         <f>LOOKUP(D622,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Composition</v>
+        <v>Category  Name</v>
       </c>
       <c r="D622" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="str">
         <f>LOOKUP(B623,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Tectonic Province</v>
+        <v>Target Rock Volume m3</v>
       </c>
       <c r="B623" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C623" t="str">
         <f>LOOKUP(D623,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Category  Name</v>
+        <v>Composition</v>
       </c>
       <c r="D623" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="str">
         <f>LOOKUP(B624,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Temp Measurement Date Time</v>
+        <v>Tectonic Province</v>
       </c>
       <c r="B624" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="C624" t="str">
         <f>LOOKUP(D624,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>History</v>
+        <v>Category  Name</v>
       </c>
       <c r="D624" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="str">
         <f>LOOKUP(B625,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Temp Measurement Procedure</v>
+        <v>Temp Measurement Date Time</v>
       </c>
       <c r="B625" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C625" t="str">
         <f>LOOKUP(D625,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Procedure Description</v>
+        <v>History</v>
       </c>
       <c r="D625" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="str">
         <f>LOOKUP(B626,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Temperature</v>
+        <v>Temp Measurement Procedure</v>
       </c>
       <c r="B626" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="C626" t="str">
         <f>LOOKUP(D626,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Temperature</v>
+        <v>Procedure Description</v>
       </c>
       <c r="D626" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -20580,39 +20602,39 @@
         <v>Temperature</v>
       </c>
       <c r="B627" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C627" t="str">
         <f>LOOKUP(D627,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Correction</v>
+        <v>Temperature</v>
       </c>
       <c r="D627" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="str">
         <f>LOOKUP(B628,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Temperature Fahrenheit</v>
+        <v>Temperature Correction</v>
       </c>
       <c r="B628" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C628" t="str">
         <f>LOOKUP(D628,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Temperature</v>
+        <v>Correction</v>
       </c>
       <c r="D628" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="str">
         <f>LOOKUP(B629,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Temperature Flowing</v>
+        <v>Temperature Fahrenheit</v>
       </c>
       <c r="B629" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C629" t="str">
         <f>LOOKUP(D629,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -20625,10 +20647,10 @@
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="str">
         <f>LOOKUP(B630,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Temperature Max C</v>
+        <v>Temperature Flowing</v>
       </c>
       <c r="B630" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C630" t="str">
         <f>LOOKUP(D630,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -20641,209 +20663,209 @@
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="str">
         <f>LOOKUP(B631,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Temperature Measure Type</v>
+        <v>Temperature Max C</v>
       </c>
       <c r="B631" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C631" t="str">
         <f>LOOKUP(D631,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Procedure Type</v>
+        <v>Temperature</v>
       </c>
       <c r="D631" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="str">
         <f>LOOKUP(B632,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Temperature Min C</v>
+        <v>Temperature Measure Type</v>
       </c>
       <c r="B632" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C632" t="str">
         <f>LOOKUP(D632,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Temperature</v>
+        <v>Procedure Type</v>
       </c>
       <c r="D632" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="str">
         <f>LOOKUP(B633,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Temperature Units</v>
+        <v>Temperature Min C</v>
       </c>
       <c r="B633" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C633" t="str">
         <f>LOOKUP(D633,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Temperature</v>
       </c>
       <c r="D633" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="str">
         <f>LOOKUP(B634,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Terrain Correction mgal</v>
+        <v>Temperature Units</v>
       </c>
       <c r="B634" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C634" t="str">
         <f>LOOKUP(D634,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Correction</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D634" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="str">
         <f>LOOKUP(B635,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Test date time</v>
+        <v>Temperature units</v>
       </c>
       <c r="B635" t="s">
-        <v>807</v>
+        <v>835</v>
       </c>
       <c r="C635" t="str">
         <f>LOOKUP(D635,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Event in History</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D635" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="str">
         <f>LOOKUP(B636,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Test Fluid</v>
+        <v>Terrain Correction mgal</v>
       </c>
       <c r="B636" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C636" t="str">
         <f>LOOKUP(D636,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Material Type</v>
+        <v>Correction</v>
       </c>
       <c r="D636" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="str">
         <f>LOOKUP(B637,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Test Name</v>
+        <v>Test date time</v>
       </c>
       <c r="B637" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C637" t="str">
         <f>LOOKUP(D637,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Observation Name</v>
+        <v>Event in History</v>
       </c>
       <c r="D637" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="str">
         <f>LOOKUP(B638,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Test Number</v>
+        <v>Test Fluid</v>
       </c>
       <c r="B638" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C638" t="str">
         <f>LOOKUP(D638,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Local Identifier</v>
+        <v>Material Type</v>
       </c>
       <c r="D638" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="str">
         <f>LOOKUP(B639,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Test Operator</v>
+        <v>Test Name</v>
       </c>
       <c r="B639" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C639" t="str">
         <f>LOOKUP(D639,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Resource Responsible Party</v>
+        <v>Observation Name</v>
       </c>
       <c r="D639" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="str">
         <f>LOOKUP(B640,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Test Type</v>
+        <v>Test Number</v>
       </c>
       <c r="B640" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C640" t="str">
         <f>LOOKUP(D640,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Procedure Type</v>
+        <v>Local Identifier</v>
       </c>
       <c r="D640" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="str">
         <f>LOOKUP(B641,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Test Type Description</v>
+        <v>Test Operator</v>
       </c>
       <c r="B641" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C641" t="str">
         <f>LOOKUP(D641,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Procedure Description</v>
+        <v>Resource Responsible Party</v>
       </c>
       <c r="D641" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="str">
         <f>LOOKUP(B642,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Thermal Conductivity Units</v>
+        <v>Test Type</v>
       </c>
       <c r="B642" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C642" t="str">
         <f>LOOKUP(D642,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Procedure Type</v>
       </c>
       <c r="D642" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="str">
         <f>LOOKUP(B643,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Thermal Conductivity Units</v>
+        <v>Test Type Description</v>
       </c>
       <c r="B643" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="C643" t="str">
         <f>LOOKUP(D643,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Procedure Description</v>
       </c>
       <c r="D643" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
@@ -20852,7 +20874,7 @@
         <v>Thermal Conductivity Units</v>
       </c>
       <c r="B644" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
       <c r="C644" t="str">
         <f>LOOKUP(D644,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -20865,74 +20887,74 @@
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="str">
         <f>LOOKUP(B645,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Thermal Diffusivity</v>
+        <v>Thermal Conductivity Units</v>
       </c>
       <c r="B645" t="s">
-        <v>815</v>
+        <v>840</v>
       </c>
       <c r="C645" t="str">
         <f>LOOKUP(D645,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Thermal Diffusivity</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D645" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="str">
         <f>LOOKUP(B646,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Thermal Diffusivity units</v>
+        <v>Thermal Diffusivity</v>
       </c>
       <c r="B646" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="C646" t="str">
         <f>LOOKUP(D646,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Thermal Diffusivity</v>
       </c>
       <c r="D646" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="str">
         <f>LOOKUP(B647,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Thermal Spring URI</v>
+        <v>Thermal Diffusivity units</v>
       </c>
       <c r="B647" t="s">
-        <v>816</v>
+        <v>841</v>
       </c>
       <c r="C647" t="str">
         <f>LOOKUP(D647,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Identifier</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D647" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="str">
         <f>LOOKUP(B648,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Time Final Shut In min</v>
+        <v>Thermal Spring URI</v>
       </c>
       <c r="B648" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C648" t="str">
         <f>LOOKUP(D648,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Duration</v>
+        <v>Feature Identifier</v>
       </c>
       <c r="D648" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="str">
         <f>LOOKUP(B649,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Time Initial Shut In min</v>
+        <v>Time Final Shut In min</v>
       </c>
       <c r="B649" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C649" t="str">
         <f>LOOKUP(D649,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -20945,10 +20967,10 @@
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="str">
         <f>LOOKUP(B650,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v xml:space="preserve">Time Since Circulation </v>
+        <v>Time Initial Shut In min</v>
       </c>
       <c r="B650" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C650" t="str">
         <f>LOOKUP(D650,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -20977,170 +20999,170 @@
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="str">
         <f>LOOKUP(B652,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Top Logged Interval ft</v>
+        <v xml:space="preserve">Time Since Circulation </v>
       </c>
       <c r="B652" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C652" t="str">
         <f>LOOKUP(D652,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Coverage Domain Bound</v>
+        <v>Duration</v>
       </c>
       <c r="D652" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="str">
         <f>LOOKUP(B653,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Total Mine Heat kJ</v>
+        <v>Top Logged Interval ft</v>
       </c>
       <c r="B653" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C653" t="str">
         <f>LOOKUP(D653,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Energy</v>
+        <v>Coverage Domain Bound</v>
       </c>
       <c r="D653" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="str">
         <f>LOOKUP(B654,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Total Slip</v>
+        <v>Total Mine Heat kJ</v>
       </c>
       <c r="B654" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C654" t="str">
         <f>LOOKUP(D654,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Displacement</v>
+        <v>Energy</v>
       </c>
       <c r="D654" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="str">
         <f>LOOKUP(B655,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Transmissivity</v>
+        <v>Total Slip</v>
       </c>
       <c r="B655" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C655" t="str">
         <f>LOOKUP(D655,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Hydraulic Transmissivity</v>
+        <v>Displacement</v>
       </c>
       <c r="D655" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="str">
         <f>LOOKUP(B656,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Transmissivity units</v>
+        <v>Township</v>
       </c>
       <c r="B656" t="s">
-        <v>824</v>
+        <v>889</v>
       </c>
       <c r="C656" t="str">
         <f>LOOKUP(D656,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Township Number</v>
       </c>
       <c r="D656" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="str">
         <f>LOOKUP(B657,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Trap</v>
+        <v>Transmissivity</v>
       </c>
       <c r="B657" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C657" t="str">
         <f>LOOKUP(D657,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Name</v>
+        <v>Hydraulic Transmissivity</v>
       </c>
       <c r="D657" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="str">
         <f>LOOKUP(B658,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>True Vertical Depth</v>
+        <v>Transmissivity units</v>
       </c>
       <c r="B658" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C658" t="str">
         <f>LOOKUP(D658,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Extent</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D658" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="str">
         <f>LOOKUP(B659,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>TWP</v>
-      </c>
-      <c r="B659" s="2" t="s">
-        <v>884</v>
+        <v>Trap</v>
+      </c>
+      <c r="B659" t="s">
+        <v>825</v>
       </c>
       <c r="C659" t="str">
         <f>LOOKUP(D659,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Township Number</v>
+        <v>Feature Name</v>
       </c>
       <c r="D659" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="str">
         <f>LOOKUP(B660,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>uncertainty</v>
+        <v>True Vertical Depth</v>
       </c>
       <c r="B660" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C660" t="str">
         <f>LOOKUP(D660,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Uncertainty</v>
+        <v>Feature Extent</v>
       </c>
       <c r="D660" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="str">
         <f>LOOKUP(B661,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Uncertainty Specific Heat</v>
-      </c>
-      <c r="B661" t="s">
-        <v>830</v>
+        <v>TWP</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>884</v>
       </c>
       <c r="C661" t="str">
         <f>LOOKUP(D661,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Uncertainty</v>
+        <v>Township Number</v>
       </c>
       <c r="D661" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="str">
         <f>LOOKUP(B662,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Uncertainty Thermal Conductivity</v>
+        <v>uncertainty</v>
       </c>
       <c r="B662" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C662" t="str">
         <f>LOOKUP(D662,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -21153,10 +21175,10 @@
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="str">
         <f>LOOKUP(B663,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Uncertainty Thermal Diffusivity</v>
+        <v>Uncertainty mgal</v>
       </c>
       <c r="B663" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C663" t="str">
         <f>LOOKUP(D663,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -21169,10 +21191,10 @@
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="str">
         <f>LOOKUP(B664,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>UncertaintyDensity</v>
+        <v>Uncertainty Specific Heat</v>
       </c>
       <c r="B664" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C664" t="str">
         <f>LOOKUP(D664,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -21185,10 +21207,10 @@
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="str">
         <f>LOOKUP(B665,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>UncertaintyDensity</v>
+        <v>Uncertainty Thermal Conductivity</v>
       </c>
       <c r="B665" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C665" t="str">
         <f>LOOKUP(D665,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -21201,570 +21223,570 @@
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="str">
         <f>LOOKUP(B666,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Units Of Measure</v>
+        <v>Uncertainty Thermal Diffusivity</v>
       </c>
       <c r="B666" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C666" t="str">
         <f>LOOKUP(D666,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Uncertainty</v>
       </c>
       <c r="D666" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="str">
         <f>LOOKUP(B667,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Units Of Measure</v>
+        <v>UncertaintyDensity</v>
       </c>
       <c r="B667" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="C667" t="str">
         <f>LOOKUP(D667,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Uncertainty</v>
       </c>
       <c r="D667" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="str">
         <f>LOOKUP(B668,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Update Date</v>
+        <v>Units Of Measure</v>
       </c>
       <c r="B668" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C668" t="str">
         <f>LOOKUP(D668,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>History</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D668" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="str">
         <f>LOOKUP(B669,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Update Time Stamp</v>
+        <v>Units Of Measure</v>
       </c>
       <c r="B669" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C669" t="str">
         <f>LOOKUP(D669,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Update Time Stamp</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D669" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="str">
         <f>LOOKUP(B670,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Use Application</v>
+        <v>Update Date</v>
       </c>
       <c r="B670" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C670" t="str">
         <f>LOOKUP(D670,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Use Application</v>
+        <v>History</v>
       </c>
       <c r="D670" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="str">
         <f>LOOKUP(B671,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Use Application</v>
+        <v>Update Time Stamp</v>
       </c>
       <c r="B671" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C671" t="str">
         <f>LOOKUP(D671,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Spatial Reference System</v>
+        <v>Update Time Stamp</v>
       </c>
       <c r="D671" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="str">
         <f>LOOKUP(B672,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>UTM Datum Zone</v>
+        <v>Use Application</v>
       </c>
       <c r="B672" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C672" t="str">
         <f>LOOKUP(D672,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>UTM Northing</v>
+        <v>Use Application</v>
       </c>
       <c r="D672" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="str">
         <f>LOOKUP(B673,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>UTM E</v>
+        <v>UTM Datum Zone</v>
       </c>
       <c r="B673" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C673" t="str">
         <f>LOOKUP(D673,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>UTM Easting</v>
+        <v>Spatial Reference System</v>
       </c>
       <c r="D673" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="str">
         <f>LOOKUP(B674,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>UTM Zone</v>
+        <v>UTM E</v>
       </c>
       <c r="B674" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C674" t="str">
         <f>LOOKUP(D674,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Spatial Reference System</v>
+        <v>UTM Easting</v>
       </c>
       <c r="D674" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="str">
         <f>LOOKUP(B675,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Vent Elevation</v>
+        <v>UTM N</v>
       </c>
       <c r="B675" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C675" t="str">
         <f>LOOKUP(D675,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Extent</v>
+        <v>UTM Northing</v>
       </c>
       <c r="D675" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="str">
         <f>LOOKUP(B676,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Vertical Conductivity ft day</v>
+        <v>UTM Zone</v>
       </c>
       <c r="B676" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C676" t="str">
         <f>LOOKUP(D676,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Hydraulic conductivity</v>
+        <v>Spatial Reference System</v>
       </c>
       <c r="D676" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="str">
         <f>LOOKUP(B677,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Vertical Datum</v>
+        <v>Vent Elevation</v>
       </c>
       <c r="B677" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C677" t="str">
         <f>LOOKUP(D677,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Datum</v>
+        <v>Vertical Extent</v>
       </c>
       <c r="D677" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="str">
         <f>LOOKUP(B678,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Vertical Extent Max m</v>
+        <v>Vertical Conductivity ft day</v>
       </c>
       <c r="B678" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C678" t="str">
         <f>LOOKUP(D678,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Extent</v>
+        <v>Hydraulic conductivity</v>
       </c>
       <c r="D678" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="str">
         <f>LOOKUP(B679,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Vertical Extent Min m</v>
+        <v>Vertical Datum</v>
       </c>
       <c r="B679" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C679" t="str">
         <f>LOOKUP(D679,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Extent</v>
+        <v>Vertical Datum</v>
       </c>
       <c r="D679" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="str">
         <f>LOOKUP(B680,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Vertical Units</v>
+        <v>Vertical Extent Max m</v>
       </c>
       <c r="B680" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C680" t="str">
         <f>LOOKUP(D680,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Unit of Measure</v>
+        <v>Vertical Extent</v>
       </c>
       <c r="D680" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="str">
         <f>LOOKUP(B681,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Viscosity</v>
+        <v>Vertical Extent Min m</v>
       </c>
       <c r="B681" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C681" t="str">
         <f>LOOKUP(D681,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Viscosity</v>
+        <v>Vertical Extent</v>
       </c>
       <c r="D681" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="str">
         <f>LOOKUP(B682,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Volc Vent Name</v>
+        <v>Vertical Units</v>
       </c>
       <c r="B682" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C682" t="str">
         <f>LOOKUP(D682,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Name</v>
+        <v>Unit of Measure</v>
       </c>
       <c r="D682" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="str">
         <f>LOOKUP(B683,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Volcanic Group</v>
+        <v>Viscosity</v>
       </c>
       <c r="B683" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C683" t="str">
         <f>LOOKUP(D683,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Name</v>
+        <v>Viscosity</v>
       </c>
       <c r="D683" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="str">
         <f>LOOKUP(B684,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Water Density  kgm3</v>
+        <v>Volc Vent Name</v>
       </c>
       <c r="B684" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C684" t="str">
         <f>LOOKUP(D684,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Density</v>
+        <v>Feature Name</v>
       </c>
       <c r="D684" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="str">
         <f>LOOKUP(B685,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Water Density  mgL</v>
+        <v>Volcanic Group</v>
       </c>
       <c r="B685" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C685" t="str">
         <f>LOOKUP(D685,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Density</v>
+        <v>Feature Name</v>
       </c>
       <c r="D685" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="str">
         <f>LOOKUP(B686,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Water Injection bbl</v>
+        <v>Water Density  kgm3</v>
       </c>
       <c r="B686" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C686" t="str">
         <f>LOOKUP(D686,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Fluid Quantity</v>
+        <v>Density</v>
       </c>
       <c r="D686" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="str">
         <f>LOOKUP(B687,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Water Mass kg</v>
+        <v>Water Density  mgL</v>
       </c>
       <c r="B687" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C687" t="str">
         <f>LOOKUP(D687,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Fluid Quantity</v>
+        <v>Density</v>
       </c>
       <c r="D687" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="str">
         <f>LOOKUP(B688,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Water Resistivity ohm/m</v>
+        <v>Water Injection bbl</v>
       </c>
       <c r="B688" t="s">
-        <v>698</v>
+        <v>860</v>
       </c>
       <c r="C688" t="str">
         <f>LOOKUP(D688,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Resistivity</v>
+        <v>Fluid Quantity</v>
       </c>
       <c r="D688" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="str">
         <f>LOOKUP(B689,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Water Saturation pct</v>
+        <v>Water Mass kg</v>
       </c>
       <c r="B689" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C689" t="str">
         <f>LOOKUP(D689,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Composition</v>
+        <v>Fluid Quantity</v>
       </c>
       <c r="D689" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="str">
         <f>LOOKUP(B690,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Water Table Temperature</v>
+        <v>Water Resistivity ohm/m</v>
       </c>
       <c r="B690" t="s">
-        <v>864</v>
+        <v>698</v>
       </c>
       <c r="C690" t="str">
         <f>LOOKUP(D690,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Temperature</v>
+        <v>Resistivity</v>
       </c>
       <c r="D690" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="str">
         <f>LOOKUP(B691,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Water Table Top</v>
+        <v>Water Saturation pct</v>
       </c>
       <c r="B691" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C691" t="str">
         <f>LOOKUP(D691,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Vertical Position</v>
+        <v>Composition</v>
       </c>
       <c r="D691" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="str">
         <f>LOOKUP(B692,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Water TDS mgl</v>
+        <v>Water Table Temperature</v>
       </c>
       <c r="B692" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C692" t="str">
         <f>LOOKUP(D692,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Chemical Character</v>
+        <v>Temperature</v>
       </c>
       <c r="D692" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="str">
         <f>LOOKUP(B693,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Watershed Name</v>
+        <v>Water Table Top</v>
       </c>
       <c r="B693" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C693" t="str">
         <f>LOOKUP(D693,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Name</v>
+        <v>Vertical Position</v>
       </c>
       <c r="D693" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="str">
         <f>LOOKUP(B694,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Well Bore Shape</v>
+        <v>Water TDS mgl</v>
       </c>
       <c r="B694" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C694" t="str">
         <f>LOOKUP(D694,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Shape</v>
+        <v>Chemical Character</v>
       </c>
       <c r="D694" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="str">
         <f>LOOKUP(B695,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Well Count</v>
+        <v>Watershed Name</v>
       </c>
       <c r="B695" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="C695" t="str">
         <f>LOOKUP(D695,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Count</v>
+        <v>Feature Name</v>
       </c>
       <c r="D695" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="str">
         <f>LOOKUP(B696,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Well Drill Date</v>
+        <v>Well Bore Shape</v>
       </c>
       <c r="B696" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C696" t="str">
         <f>LOOKUP(D696,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Resource History</v>
+        <v>Feature Shape</v>
       </c>
       <c r="D696" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="str">
         <f>LOOKUP(B697,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Well Drill Date Type</v>
+        <v>Well Count</v>
       </c>
       <c r="B697" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C697" t="str">
         <f>LOOKUP(D697,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Event Type</v>
+        <v>Count</v>
       </c>
       <c r="D697" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="str">
         <f>LOOKUP(B698,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Well Header URI</v>
+        <v>Well Drill Date</v>
       </c>
       <c r="B698" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C698" t="str">
         <f>LOOKUP(D698,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Sampling Feature Identifier</v>
+        <v>Resource History</v>
       </c>
       <c r="D698" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="str">
         <f>LOOKUP(B699,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Well Name</v>
+        <v>Well Drill Date Type</v>
       </c>
       <c r="B699" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C699" t="str">
         <f>LOOKUP(D699,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Name</v>
+        <v>Event Type</v>
       </c>
       <c r="D699" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="str">
         <f>LOOKUP(B700,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Well Type</v>
+        <v>Well Header URI</v>
       </c>
       <c r="B700" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C700" t="str">
         <f>LOOKUP(D700,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Feature Type</v>
+        <v>Sampling Feature Identifier</v>
       </c>
       <c r="D700" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="str">
         <f>LOOKUP(B701,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v xml:space="preserve">WellBore Name </v>
+        <v>Well Name</v>
       </c>
       <c r="B701" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="C701" t="str">
         <f>LOOKUP(D701,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -21777,106 +21799,106 @@
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="str">
         <f>LOOKUP(B702,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>WellBore URI</v>
+        <v>Well Type</v>
       </c>
       <c r="B702" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="C702" t="str">
         <f>LOOKUP(D702,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Sampling Feature Identifier</v>
+        <v>Feature Type</v>
       </c>
       <c r="D702" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="str">
         <f>LOOKUP(B703,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Width m</v>
+        <v xml:space="preserve">WellBore Name </v>
       </c>
       <c r="B703" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C703" t="str">
         <f>LOOKUP(D703,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Extent</v>
+        <v>Feature Name</v>
       </c>
       <c r="D703" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="str">
         <f>LOOKUP(B704,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Year Commissioned</v>
+        <v>WellBore URI</v>
       </c>
       <c r="B704" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C704" t="str">
         <f>LOOKUP(D704,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Event in History</v>
+        <v>Sampling Feature Identifier</v>
       </c>
       <c r="D704" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="str">
         <f>LOOKUP(B705,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Years In Production</v>
+        <v>Width m</v>
       </c>
       <c r="B705" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C705" t="str">
         <f>LOOKUP(D705,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>History</v>
+        <v>Extent</v>
       </c>
       <c r="D705" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="str">
         <f>LOOKUP(B706,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Younger Age URI</v>
+        <v>Year Commissioned</v>
       </c>
       <c r="B706" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C706" t="str">
         <f>LOOKUP(D706,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Younger Age</v>
+        <v>Event in History</v>
       </c>
       <c r="D706" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="str">
         <f>LOOKUP(B707,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Youngest Age</v>
+        <v>Years In Production</v>
       </c>
       <c r="B707" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C707" t="str">
         <f>LOOKUP(D707,[2]Property!$A:$A,[2]Property!$B:$B)</f>
-        <v>Younger Age</v>
+        <v>History</v>
       </c>
       <c r="D707" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="str">
         <f>LOOKUP(B708,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Youngest Radiometric Age Ma</v>
+        <v>Younger Age URI</v>
       </c>
       <c r="B708" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C708" t="str">
         <f>LOOKUP(D708,[2]Property!$A:$A,[2]Property!$B:$B)</f>
@@ -21889,23 +21911,55 @@
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="str">
         <f>LOOKUP(B709,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
-        <v>Zip</v>
+        <v>Youngest Age</v>
       </c>
       <c r="B709" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C709" t="str">
         <f>LOOKUP(D709,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Younger Age</v>
+      </c>
+      <c r="D709" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710" t="str">
+        <f>LOOKUP(B710,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
+        <v>Youngest Radiometric Age Ma</v>
+      </c>
+      <c r="B710" t="s">
+        <v>881</v>
+      </c>
+      <c r="C710" t="str">
+        <f>LOOKUP(D710,[2]Property!$A:$A,[2]Property!$B:$B)</f>
+        <v>Younger Age</v>
+      </c>
+      <c r="D710" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711" t="str">
+        <f>LOOKUP(B711,[1]Attribute!$A:$A,[1]Attribute!$C:$C)</f>
+        <v>Zip</v>
+      </c>
+      <c r="B711" t="s">
+        <v>882</v>
+      </c>
+      <c r="C711" t="str">
+        <f>LOOKUP(D711,[2]Property!$A:$A,[2]Property!$B:$B)</f>
         <v>Fiat Geographic Area</v>
       </c>
-      <c r="D709" t="s">
+      <c r="D711" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:D704"/>
-  <sortState ref="A2:D709">
-    <sortCondition ref="A688"/>
+  <sortState ref="A2:D711">
+    <sortCondition ref="A698"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
